--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27840" windowHeight="13480" activeTab="4"/>
+    <workbookView windowWidth="27840" windowHeight="13480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="3" r:id="rId1"/>
@@ -339,10 +339,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -362,13 +362,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -376,61 +369,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,10 +398,71 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -475,7 +475,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,14 +496,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -506,19 +506,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,163 +686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,41 +697,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -768,17 +733,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -797,16 +756,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,135 +815,135 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -951,12 +951,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1359,7 +1353,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -1371,11 +1365,11 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1393,10 +1387,10 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1413,7 +1407,7 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H4" t="s">
@@ -1433,7 +1427,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H5" t="s">
@@ -1511,17 +1505,17 @@
       </c>
     </row>
     <row r="3" spans="6:6">
-      <c r="F3" s="7"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="7" spans="6:7">
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="6:6">
-      <c r="F8" s="7"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" spans="6:6">
-      <c r="F9" s="7"/>
+      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1535,8 +1529,8 @@
   <sheetPr/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1546,11 +1540,11 @@
     <col min="4" max="4" width="59" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
     <col min="6" max="6" width="36.5454545454545" customWidth="1"/>
-    <col min="8" max="8" width="8.72727272727273" style="6"/>
+    <col min="8" max="8" width="8.72727272727273" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1602,7 +1596,7 @@
       <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1619,7 +1613,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1639,7 +1633,7 @@
       <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1659,7 +1653,7 @@
       <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1679,7 +1673,7 @@
       <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1699,7 +1693,7 @@
       <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1719,7 +1713,7 @@
       <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1739,7 +1733,7 @@
       <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1759,7 +1753,7 @@
       <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1779,7 +1773,7 @@
       <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="H12" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1799,7 +1793,7 @@
       <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1819,7 +1813,7 @@
       <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1839,7 +1833,7 @@
       <c r="E15" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1859,7 +1853,7 @@
       <c r="E16" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1879,7 +1873,7 @@
       <c r="E17" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1899,7 +1893,7 @@
       <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1919,7 +1913,7 @@
       <c r="E19" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1939,7 +1933,7 @@
       <c r="E20" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1959,7 +1953,7 @@
       <c r="E21" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1979,7 +1973,7 @@
       <c r="E22" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1999,7 +1993,7 @@
       <c r="E23" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2019,7 +2013,7 @@
       <c r="E24" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2039,7 +2033,7 @@
       <c r="E25" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="6" t="s">
+      <c r="H25" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2059,7 +2053,7 @@
       <c r="E26" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="H26" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2079,7 +2073,7 @@
       <c r="F27" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="H27" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2099,7 +2093,7 @@
       <c r="F28" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="H28" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2119,7 +2113,7 @@
       <c r="F29" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="H29" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2139,7 +2133,7 @@
       <c r="F30" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="H30" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2159,7 +2153,7 @@
       <c r="E31" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2179,7 +2173,7 @@
       <c r="F32" t="s">
         <v>75</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2199,7 +2193,7 @@
       <c r="F33" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="6" t="s">
+      <c r="H33" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2216,7 +2210,7 @@
       <c r="D34" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="4">
         <v>6</v>
       </c>
     </row>
@@ -2233,7 +2227,7 @@
       <c r="D35" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="H35" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2250,7 +2244,7 @@
       <c r="D36" t="s">
         <v>82</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="H36" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2267,7 +2261,7 @@
       <c r="D37" t="s">
         <v>82</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2284,7 +2278,7 @@
       <c r="D38" t="s">
         <v>86</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="H38" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2301,7 +2295,7 @@
       <c r="D39" t="s">
         <v>80</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2333,7 +2327,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2389,7 +2383,7 @@
   <sheetPr/>
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
@@ -2402,7 +2396,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">

--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -1530,7 +1530,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27840" windowHeight="13480" activeTab="2"/>
+    <workbookView windowHeight="17940" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="3" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="register" sheetId="5" r:id="rId4"/>
     <sheet name="game" sheetId="6" r:id="rId5"/>
     <sheet name="activity" sheetId="7" r:id="rId6"/>
+    <sheet name="betrecord" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="385">
   <si>
     <t>id</t>
   </si>
@@ -332,6 +333,849 @@
   </si>
   <si>
     <t>{"client_type":"mobile"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周注单列表</t>
+  </si>
+  <si>
+    <t>/frontend/v1/member/bet-record/summary</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>/frontend/v1/member/bet-record/list</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的11选5注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"gd11x5"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的pc蛋蛋注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"bjpcdd"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的北京赛车注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"bjsc"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的快速赛车注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"kssc"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的快乐赛车注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"sfsc"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的幸运赛马注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"wfsc"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的香港赛马注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"xgsm"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的快乐飞艇注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"amsm"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的香港六合彩注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"xglhc"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的快速六合彩注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"kslhc"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的五分六合彩注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"wflhc"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的江苏快3注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"jsk3"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的快速快3注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"ksk3"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的3分快3注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"sfk3"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的5分快3注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"wfk3"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的广东快乐十分注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"gdklsf"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的欢乐生肖注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"cqssc"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的快速时时彩注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"ksssc"}</t>
+  </si>
+  <si>
+    <t>获取彩票本周每天的3分时时彩注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"lottery","limit":10,"page":1,"game_platform":"sfssc"}</t>
+  </si>
+  <si>
+    <t>获取彩票上周注单列表</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的11选5注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的pc蛋蛋注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的北京赛车注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的快速赛车注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的快乐赛车注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的幸运赛马注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的香港赛马注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的快乐飞艇注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的香港六合彩注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的快速六合彩注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的五分六合彩注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的江苏快3注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的快速快3注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的3分快3注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的5分快3注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的广东快乐十分注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的欢乐生肖注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的快速时时彩注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票上周每天的3分时时彩注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月注单列表</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的11选5注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的pc蛋蛋注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的北京赛车注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的快速赛车注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的快乐赛车注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的幸运赛马注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的香港赛马注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的快乐飞艇注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的香港六合彩注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的快速六合彩注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的五分六合彩注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的江苏快3注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的快速快3注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的3分快3注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的5分快3注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的广东快乐十分注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的欢乐生肖注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的快速时时彩注单详情</t>
+  </si>
+  <si>
+    <t>获取彩票本月每天的3分时时彩注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯本周注单列表</t>
+  </si>
+  <si>
+    <t>{"game_class":"live"}</t>
+  </si>
+  <si>
+    <t>获取视讯本周每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"live","limit":10,"page":1}</t>
+  </si>
+  <si>
+    <t>获取视讯本周每天的AG视讯注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"live","limit":10,"page":1,"game_platform":"AG_LIVE"}</t>
+  </si>
+  <si>
+    <t>获取视讯本周每天的BBIN视讯注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"live","limit":10,"page":1,"game_platform":"BBIN_LIVE"}</t>
+  </si>
+  <si>
+    <t>获取视讯本周每天的BG视讯注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"live","limit":10,"page":1,"game_platform":"BG_LIVE"}</t>
+  </si>
+  <si>
+    <t>获取视讯本周每天的DG视讯注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"live","limit":10,"page":1,"game_platform":"DG_LIVE"}</t>
+  </si>
+  <si>
+    <t>获取视讯本周每天的DS视讯注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"live","limit":10,"page":1,"game_platform":"DS_LIVE"}</t>
+  </si>
+  <si>
+    <t>获取视讯本周每天的LMG视讯注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"live","limit":10,"page":1,"game_platform":"LMG_LIVE"}</t>
+  </si>
+  <si>
+    <t>获取视讯本周每天的OG视讯注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"live","limit":10,"page":1,"game_platform":"OG_LIVE"}</t>
+  </si>
+  <si>
+    <t>获取视讯本周每天的AB视讯注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"live","limit":10,"page":1,"game_platform":"AB_LIVE"}</t>
+  </si>
+  <si>
+    <t>获取视讯本周每天的SA视讯注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"live","limit":10,"page":1,"game_platform":"SA_LIVE"}</t>
+  </si>
+  <si>
+    <t>获取视讯本周每天的LEBO视讯注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"live","limit":10,"page":1,"game_platform":"LEBO_LIVE"}</t>
+  </si>
+  <si>
+    <t>获取视讯本周每天的EBET视讯注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"live","limit":10,"page":1,"game_platform":"EBET_LIVE"}</t>
+  </si>
+  <si>
+    <t>获取视讯上周注单列表</t>
+  </si>
+  <si>
+    <t>获取视讯上周每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上周每天的AG视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上周每天的BBIN视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上周每天的BG视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上周每天的DG视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上周每天的DS视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上周每天的LMG视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上周每天的OG视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上周每天的AB视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上周每天的SA视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上周每天的LEBO视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上周每天的EBET视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯本月注单列表</t>
+  </si>
+  <si>
+    <t>获取视讯本月每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯本月每天的AG视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯本月每天的BBIN视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯本月每天的BG视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯本月每天的DG视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯本月每天的DS视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯本月每天的LMG视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯本月每天的OG视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯本月每天的AB视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯本月每天的SA视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯本月每天的LEBO视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯本月每天的EBET视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上月注单列表</t>
+  </si>
+  <si>
+    <t>获取视讯上月每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上月每天的AG视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上月每天的BBIN视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上月每天的BG视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上月每天的DG视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上月每天的DS视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上月每天的LMG视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上月每天的OG视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上月每天的AB视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上月每天的SA视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上月每天的LEBO视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取视讯上月每天的EBET视讯注单详情</t>
+  </si>
+  <si>
+    <t>获取电子本周注单列表</t>
+  </si>
+  <si>
+    <t>{"game_class":"slot"}</t>
+  </si>
+  <si>
+    <t>获取电子本周每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"slot","limit":10,"page":1}</t>
+  </si>
+  <si>
+    <t>获取电子本周每天的AG电子注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"slot","limit":10,"page":1,"game_platform":"AG_GAME"}</t>
+  </si>
+  <si>
+    <t>获取电子本周每天的FG电子注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"slot","limit":10,"page":1,"game_platform":"FG_GAME"}</t>
+  </si>
+  <si>
+    <t>获取电子本周每天的MG电子注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"slot","limit":10,"page":1,"game_platform":"MG_GAME"}</t>
+  </si>
+  <si>
+    <t>获取电子本周每天的CQ9电子注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"slot","limit":10,"page":1,"game_platform":"CQ9_GAME"}</t>
+  </si>
+  <si>
+    <t>获取电子本周每天的JDB电子注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"slot","limit":10,"page":1,"game_platform":"JDB_GAME"}</t>
+  </si>
+  <si>
+    <t>获取电子本周每天的BBIN电子注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"slot","limit":10,"page":1,"game_platform":"BBIN_GAME"}</t>
+  </si>
+  <si>
+    <t>获取电子本周每天的MW电子注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"slot","limit":10,"page":1,"game_platform":"MW_GAME"}</t>
+  </si>
+  <si>
+    <t>获取电子本周每天的DT电子注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"slot","limit":10,"page":1,"game_platform":"DT_GAME"}</t>
+  </si>
+  <si>
+    <t>获取电子本周每天的AE电子注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"slot","limit":10,"page":1,"game_platform":"AE_GAME"}</t>
+  </si>
+  <si>
+    <t>获取电子本周每天的TTG电子注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"slot","limit":10,"page":1,"game_platform":"TTG_GAME"}</t>
+  </si>
+  <si>
+    <t>获取电子本周每天的PT电子注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"slot","limit":10,"page":1,"game_platform":"PT_GAME"}</t>
+  </si>
+  <si>
+    <t>获取电子上周注单列表</t>
+  </si>
+  <si>
+    <t>获取电子上周每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上周每天的AG电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上周每天的FG电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上周每天的MG电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上周每天的CQ9电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上周每天的JDB电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上周每天的BBIN电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上周每天的MW电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上周每天的DT电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上周每天的AE电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上周每天的TTG电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上周每天的PT电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子本月注单列表</t>
+  </si>
+  <si>
+    <t>获取电子本月每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>获取电子本月每天的AG电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子本月每天的FG电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子本月每天的MG电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子本月每天的CQ9电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子本月每天的JDB电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子本月每天的BBIN电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子本月每天的MW电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子本月每天的DT电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子本月每天的AE电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子本月每天的TTG电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子本月每天的PT电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上月注单列表</t>
+  </si>
+  <si>
+    <t>获取电子上月每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上月每天的AG电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上月每天的FG电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上月每天的MG电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上月每天的CQ9电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上月每天的JDB电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上月每天的BBIN电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上月每天的MW电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上月每天的DT电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上月每天的AE电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上月每天的TTG电子注单详情</t>
+  </si>
+  <si>
+    <t>获取电子上月每天的PT电子注单详情</t>
+  </si>
+  <si>
+    <t>获取体育本周注单列表</t>
+  </si>
+  <si>
+    <t>{"game_class":"sport"}</t>
+  </si>
+  <si>
+    <t>获取体育本周每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"sport","limit":10,"page":1}</t>
+  </si>
+  <si>
+    <t>获取体育本周每天的沙巴体育注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"sport","limit":10,"page":1,"game_platform":"SB_SPORT"}</t>
+  </si>
+  <si>
+    <t>获取体育本周每天的皇冠体育注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"sport","limit":10,"page":1,"game_platform":"SX_SPORT"}</t>
+  </si>
+  <si>
+    <t>获取体育本周每天的AG体育注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"sport","limit":10,"page":1,"game_platform":"AG_SPORT"}</t>
+  </si>
+  <si>
+    <t>获取体育本周每天的BBIN体育注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"sport","limit":10,"page":1,"game_platform":"BBIN_SPORT"}</t>
+  </si>
+  <si>
+    <t>获取体育上周注单列表</t>
+  </si>
+  <si>
+    <t>获取体育上周每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>获取体育上周每天的沙巴体育注单详情</t>
+  </si>
+  <si>
+    <t>获取体育上周每天的皇冠体育注单详情</t>
+  </si>
+  <si>
+    <t>获取体育上周每天的AG体育注单详情</t>
+  </si>
+  <si>
+    <t>获取体育上周每天的BBIN体育注单详情</t>
+  </si>
+  <si>
+    <t>获取体育本月注单列表</t>
+  </si>
+  <si>
+    <t>获取体育本月每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>获取体育本月每天的沙巴体育注单详情</t>
+  </si>
+  <si>
+    <t>获取体育本月每天的皇冠体育注单详情</t>
+  </si>
+  <si>
+    <t>获取体育本月每天的AG体育注单详情</t>
+  </si>
+  <si>
+    <t>获取体育本月每天的BBIN体育注单详情</t>
+  </si>
+  <si>
+    <t>获取体育上月注单列表</t>
+  </si>
+  <si>
+    <t>获取体育上月每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>获取体育上月每天的沙巴体育注单详情</t>
+  </si>
+  <si>
+    <t>获取体育上月每天的皇冠体育注单详情</t>
+  </si>
+  <si>
+    <t>获取体育上月每天的AG体育注单详情</t>
+  </si>
+  <si>
+    <t>获取体育上月每天的BBIN体育注单详情</t>
+  </si>
+  <si>
+    <t>获取棋牌本周注单列表</t>
+  </si>
+  <si>
+    <t>{"game_class":"chess"}</t>
+  </si>
+  <si>
+    <t>获取棋牌本周每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"chess","limit":10,"page":1}</t>
+  </si>
+  <si>
+    <t>获取棋牌本周每天的天豪棋牌注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"chess","limit":10,"page":1,"game_platform":"TH_CHESS"}</t>
+  </si>
+  <si>
+    <t>获取棋牌本周每天的乐游棋牌注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"chess","limit":10,"page":1,"game_platform":"LEG_CHESS"}</t>
+  </si>
+  <si>
+    <t>获取棋牌本周每天的开元棋牌注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"chess","limit":10,"page":1,"game_platform":"KY_CHESS"}</t>
+  </si>
+  <si>
+    <t>获取棋牌本周每天的VG棋牌注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"chess","limit":10,"page":1,"game_platform":"VG_CHESS"}</t>
+  </si>
+  <si>
+    <t>获取棋牌本周每天的FG棋牌注单详情</t>
+  </si>
+  <si>
+    <t>{"game_class":"chess","limit":10,"page":1,"game_platform":"FG_CHESS"}</t>
+  </si>
+  <si>
+    <t>获取棋牌上周注单列表</t>
+  </si>
+  <si>
+    <t>获取棋牌上周每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>获取棋牌上周每天的天豪棋牌注单详情</t>
+  </si>
+  <si>
+    <t>获取棋牌上周每天的乐游棋牌注单详情</t>
+  </si>
+  <si>
+    <t>获取棋牌上周每天的开元棋牌注单详情</t>
+  </si>
+  <si>
+    <t>获取棋牌上周每天的VG棋牌注单详情</t>
+  </si>
+  <si>
+    <t>获取棋牌上周每天的FG棋牌注单详情</t>
+  </si>
+  <si>
+    <t>获取棋牌本月注单列表</t>
+  </si>
+  <si>
+    <t>获取棋牌本月每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>获取棋牌本月每天的天豪棋牌注单详情</t>
+  </si>
+  <si>
+    <t>获取棋牌本月每天的乐游棋牌注单详情</t>
+  </si>
+  <si>
+    <t>获取棋牌本月每天的开元棋牌注单详情</t>
+  </si>
+  <si>
+    <t>获取棋牌本月每天的VG棋牌注单详情</t>
+  </si>
+  <si>
+    <t>获取棋牌本月每天的FG棋牌注单详情</t>
+  </si>
+  <si>
+    <t>获取棋牌上月月注单列表</t>
+  </si>
+  <si>
+    <t>获取棋牌上月每天的全部注单详情</t>
+  </si>
+  <si>
+    <t>获取棋牌上月每天的天豪棋牌注单详情</t>
+  </si>
+  <si>
+    <t>获取棋牌上月每天的乐游棋牌注单详情</t>
+  </si>
+  <si>
+    <t>获取棋牌上月每天的开元棋牌注单详情</t>
+  </si>
+  <si>
+    <t>获取棋牌上月每天的VG棋牌注单详情</t>
+  </si>
+  <si>
+    <t>获取棋牌上月每天的FG棋牌注单详情</t>
   </si>
 </sst>
 </file>
@@ -339,10 +1183,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -362,7 +1206,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,23 +1234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,38 +1265,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -468,14 +1289,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,15 +1305,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -503,72 +1347,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -584,25 +1362,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,13 +1440,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,25 +1470,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,25 +1530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,35 +1544,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -742,17 +1568,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,17 +1603,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -803,10 +1647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,7 +1659,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,26 +1668,26 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,94 +1696,94 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1529,7 +2373,7 @@
   <sheetPr/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -2570,7 +3414,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -2632,4 +3476,4852 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H241"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="D239" sqref="D239"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="38.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="43.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="78.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>115</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" t="s">
+        <v>108</v>
+      </c>
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E31" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D33" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" t="s">
+        <v>108</v>
+      </c>
+      <c r="E34" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>131</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>108</v>
+      </c>
+      <c r="E37" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>108</v>
+      </c>
+      <c r="E38" t="s">
+        <v>137</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>165</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E40" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>166</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>143</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>167</v>
+      </c>
+      <c r="C42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" t="s">
+        <v>145</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D43" t="s">
+        <v>108</v>
+      </c>
+      <c r="E43" t="s">
+        <v>147</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" t="s">
+        <v>105</v>
+      </c>
+      <c r="E44" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>108</v>
+      </c>
+      <c r="E45" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" t="s">
+        <v>24</v>
+      </c>
+      <c r="D48" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" t="s">
+        <v>115</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" t="s">
+        <v>117</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>108</v>
+      </c>
+      <c r="E50" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
+      <c r="E51" t="s">
+        <v>121</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" t="s">
+        <v>123</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" t="s">
+        <v>108</v>
+      </c>
+      <c r="E53" t="s">
+        <v>125</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D55" t="s">
+        <v>108</v>
+      </c>
+      <c r="E55" t="s">
+        <v>129</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" t="s">
+        <v>131</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D57" t="s">
+        <v>108</v>
+      </c>
+      <c r="E57" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" t="s">
+        <v>24</v>
+      </c>
+      <c r="D58" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" t="s">
+        <v>135</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" t="s">
+        <v>24</v>
+      </c>
+      <c r="D59" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" t="s">
+        <v>137</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>185</v>
+      </c>
+      <c r="C60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D60" t="s">
+        <v>108</v>
+      </c>
+      <c r="E60" t="s">
+        <v>139</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" t="s">
+        <v>24</v>
+      </c>
+      <c r="D61" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" t="s">
+        <v>141</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>187</v>
+      </c>
+      <c r="C62" t="s">
+        <v>24</v>
+      </c>
+      <c r="D62" t="s">
+        <v>108</v>
+      </c>
+      <c r="E62" t="s">
+        <v>143</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" t="s">
+        <v>145</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>189</v>
+      </c>
+      <c r="C64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="s">
+        <v>108</v>
+      </c>
+      <c r="E64" t="s">
+        <v>147</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" t="s">
+        <v>24</v>
+      </c>
+      <c r="D65" t="s">
+        <v>105</v>
+      </c>
+      <c r="E65" t="s">
+        <v>106</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" ht="17" customHeight="1" spans="1:8">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" t="s">
+        <v>24</v>
+      </c>
+      <c r="D66" t="s">
+        <v>108</v>
+      </c>
+      <c r="E66" t="s">
+        <v>109</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67" t="s">
+        <v>24</v>
+      </c>
+      <c r="D67" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" t="s">
+        <v>111</v>
+      </c>
+      <c r="H67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>172</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" t="s">
+        <v>113</v>
+      </c>
+      <c r="H68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>173</v>
+      </c>
+      <c r="C69" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" t="s">
+        <v>108</v>
+      </c>
+      <c r="E69" t="s">
+        <v>115</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" t="s">
+        <v>24</v>
+      </c>
+      <c r="D70" t="s">
+        <v>108</v>
+      </c>
+      <c r="E70" t="s">
+        <v>117</v>
+      </c>
+      <c r="H70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" t="s">
+        <v>24</v>
+      </c>
+      <c r="D71" t="s">
+        <v>108</v>
+      </c>
+      <c r="E71" t="s">
+        <v>119</v>
+      </c>
+      <c r="H71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>176</v>
+      </c>
+      <c r="C72" t="s">
+        <v>24</v>
+      </c>
+      <c r="D72" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" t="s">
+        <v>121</v>
+      </c>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" t="s">
+        <v>24</v>
+      </c>
+      <c r="D73" t="s">
+        <v>108</v>
+      </c>
+      <c r="E73" t="s">
+        <v>123</v>
+      </c>
+      <c r="H73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>178</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74" t="s">
+        <v>108</v>
+      </c>
+      <c r="E74" t="s">
+        <v>125</v>
+      </c>
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" t="s">
+        <v>108</v>
+      </c>
+      <c r="E75" t="s">
+        <v>127</v>
+      </c>
+      <c r="H75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" t="s">
+        <v>24</v>
+      </c>
+      <c r="D76" t="s">
+        <v>108</v>
+      </c>
+      <c r="E76" t="s">
+        <v>129</v>
+      </c>
+      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" t="s">
+        <v>24</v>
+      </c>
+      <c r="D77" t="s">
+        <v>108</v>
+      </c>
+      <c r="E77" t="s">
+        <v>131</v>
+      </c>
+      <c r="H77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" t="s">
+        <v>24</v>
+      </c>
+      <c r="D78" t="s">
+        <v>108</v>
+      </c>
+      <c r="E78" t="s">
+        <v>133</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" t="s">
+        <v>24</v>
+      </c>
+      <c r="D79" t="s">
+        <v>108</v>
+      </c>
+      <c r="E79" t="s">
+        <v>135</v>
+      </c>
+      <c r="H79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>184</v>
+      </c>
+      <c r="C80" t="s">
+        <v>24</v>
+      </c>
+      <c r="D80" t="s">
+        <v>108</v>
+      </c>
+      <c r="E80" t="s">
+        <v>137</v>
+      </c>
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C81" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" t="s">
+        <v>108</v>
+      </c>
+      <c r="E81" t="s">
+        <v>139</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" t="s">
+        <v>24</v>
+      </c>
+      <c r="D82" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" t="s">
+        <v>141</v>
+      </c>
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" t="s">
+        <v>24</v>
+      </c>
+      <c r="D83" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" t="s">
+        <v>143</v>
+      </c>
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>188</v>
+      </c>
+      <c r="C84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" t="s">
+        <v>108</v>
+      </c>
+      <c r="E84" t="s">
+        <v>145</v>
+      </c>
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" t="s">
+        <v>108</v>
+      </c>
+      <c r="E85" t="s">
+        <v>147</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>190</v>
+      </c>
+      <c r="C86" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" t="s">
+        <v>105</v>
+      </c>
+      <c r="E86" t="s">
+        <v>191</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" t="s">
+        <v>24</v>
+      </c>
+      <c r="D87" t="s">
+        <v>108</v>
+      </c>
+      <c r="E87" t="s">
+        <v>193</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" t="s">
+        <v>24</v>
+      </c>
+      <c r="D88" t="s">
+        <v>108</v>
+      </c>
+      <c r="E88" t="s">
+        <v>195</v>
+      </c>
+      <c r="H88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>196</v>
+      </c>
+      <c r="C89" t="s">
+        <v>24</v>
+      </c>
+      <c r="D89" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89" t="s">
+        <v>197</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" t="s">
+        <v>24</v>
+      </c>
+      <c r="D90" t="s">
+        <v>108</v>
+      </c>
+      <c r="E90" t="s">
+        <v>199</v>
+      </c>
+      <c r="H90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" t="s">
+        <v>24</v>
+      </c>
+      <c r="D91" t="s">
+        <v>108</v>
+      </c>
+      <c r="E91" t="s">
+        <v>201</v>
+      </c>
+      <c r="H91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" t="s">
+        <v>24</v>
+      </c>
+      <c r="D92" t="s">
+        <v>108</v>
+      </c>
+      <c r="E92" t="s">
+        <v>203</v>
+      </c>
+      <c r="H92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>204</v>
+      </c>
+      <c r="C93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D93" t="s">
+        <v>108</v>
+      </c>
+      <c r="E93" t="s">
+        <v>205</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>206</v>
+      </c>
+      <c r="C94" t="s">
+        <v>24</v>
+      </c>
+      <c r="D94" t="s">
+        <v>108</v>
+      </c>
+      <c r="E94" t="s">
+        <v>207</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>208</v>
+      </c>
+      <c r="C95" t="s">
+        <v>24</v>
+      </c>
+      <c r="D95" t="s">
+        <v>108</v>
+      </c>
+      <c r="E95" t="s">
+        <v>209</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>210</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" t="s">
+        <v>108</v>
+      </c>
+      <c r="E96" t="s">
+        <v>211</v>
+      </c>
+      <c r="H96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>212</v>
+      </c>
+      <c r="C97" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" t="s">
+        <v>108</v>
+      </c>
+      <c r="E97" t="s">
+        <v>213</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>214</v>
+      </c>
+      <c r="C98" t="s">
+        <v>24</v>
+      </c>
+      <c r="D98" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" t="s">
+        <v>215</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>216</v>
+      </c>
+      <c r="C99" t="s">
+        <v>24</v>
+      </c>
+      <c r="D99" t="s">
+        <v>105</v>
+      </c>
+      <c r="E99" t="s">
+        <v>191</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" t="s">
+        <v>24</v>
+      </c>
+      <c r="D100" t="s">
+        <v>108</v>
+      </c>
+      <c r="E100" t="s">
+        <v>193</v>
+      </c>
+      <c r="H100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>218</v>
+      </c>
+      <c r="C101" t="s">
+        <v>24</v>
+      </c>
+      <c r="D101" t="s">
+        <v>108</v>
+      </c>
+      <c r="E101" t="s">
+        <v>195</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>219</v>
+      </c>
+      <c r="C102" t="s">
+        <v>24</v>
+      </c>
+      <c r="D102" t="s">
+        <v>108</v>
+      </c>
+      <c r="E102" t="s">
+        <v>197</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>220</v>
+      </c>
+      <c r="C103" t="s">
+        <v>24</v>
+      </c>
+      <c r="D103" t="s">
+        <v>108</v>
+      </c>
+      <c r="E103" t="s">
+        <v>199</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" t="s">
+        <v>24</v>
+      </c>
+      <c r="D104" t="s">
+        <v>108</v>
+      </c>
+      <c r="E104" t="s">
+        <v>201</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" t="s">
+        <v>108</v>
+      </c>
+      <c r="E105" t="s">
+        <v>203</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>223</v>
+      </c>
+      <c r="C106" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" t="s">
+        <v>108</v>
+      </c>
+      <c r="E106" t="s">
+        <v>205</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>224</v>
+      </c>
+      <c r="C107" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" t="s">
+        <v>108</v>
+      </c>
+      <c r="E107" t="s">
+        <v>207</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>225</v>
+      </c>
+      <c r="C108" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" t="s">
+        <v>108</v>
+      </c>
+      <c r="E108" t="s">
+        <v>209</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>226</v>
+      </c>
+      <c r="C109" t="s">
+        <v>24</v>
+      </c>
+      <c r="D109" t="s">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>211</v>
+      </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>227</v>
+      </c>
+      <c r="C110" t="s">
+        <v>24</v>
+      </c>
+      <c r="D110" t="s">
+        <v>108</v>
+      </c>
+      <c r="E110" t="s">
+        <v>213</v>
+      </c>
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>228</v>
+      </c>
+      <c r="C111" t="s">
+        <v>24</v>
+      </c>
+      <c r="D111" t="s">
+        <v>108</v>
+      </c>
+      <c r="E111" t="s">
+        <v>215</v>
+      </c>
+      <c r="H111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>229</v>
+      </c>
+      <c r="C112" t="s">
+        <v>24</v>
+      </c>
+      <c r="D112" t="s">
+        <v>105</v>
+      </c>
+      <c r="E112" t="s">
+        <v>191</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>230</v>
+      </c>
+      <c r="C113" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" t="s">
+        <v>108</v>
+      </c>
+      <c r="E113" t="s">
+        <v>193</v>
+      </c>
+      <c r="H113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>231</v>
+      </c>
+      <c r="C114" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" t="s">
+        <v>108</v>
+      </c>
+      <c r="E114" t="s">
+        <v>195</v>
+      </c>
+      <c r="H114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" t="s">
+        <v>108</v>
+      </c>
+      <c r="E115" t="s">
+        <v>197</v>
+      </c>
+      <c r="H115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" t="s">
+        <v>108</v>
+      </c>
+      <c r="E116" t="s">
+        <v>199</v>
+      </c>
+      <c r="H116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" t="s">
+        <v>108</v>
+      </c>
+      <c r="E117" t="s">
+        <v>201</v>
+      </c>
+      <c r="H117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" t="s">
+        <v>108</v>
+      </c>
+      <c r="E118" t="s">
+        <v>203</v>
+      </c>
+      <c r="H118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" t="s">
+        <v>108</v>
+      </c>
+      <c r="E119" t="s">
+        <v>205</v>
+      </c>
+      <c r="H119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>237</v>
+      </c>
+      <c r="C120" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" t="s">
+        <v>108</v>
+      </c>
+      <c r="E120" t="s">
+        <v>207</v>
+      </c>
+      <c r="H120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" t="s">
+        <v>108</v>
+      </c>
+      <c r="E121" t="s">
+        <v>209</v>
+      </c>
+      <c r="H121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>239</v>
+      </c>
+      <c r="C122" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122" t="s">
+        <v>108</v>
+      </c>
+      <c r="E122" t="s">
+        <v>211</v>
+      </c>
+      <c r="H122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" t="s">
+        <v>108</v>
+      </c>
+      <c r="E123" t="s">
+        <v>213</v>
+      </c>
+      <c r="H123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>241</v>
+      </c>
+      <c r="C124" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" t="s">
+        <v>108</v>
+      </c>
+      <c r="E124" t="s">
+        <v>215</v>
+      </c>
+      <c r="H124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>242</v>
+      </c>
+      <c r="C125" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" t="s">
+        <v>105</v>
+      </c>
+      <c r="E125" t="s">
+        <v>191</v>
+      </c>
+      <c r="H125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>243</v>
+      </c>
+      <c r="C126" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" t="s">
+        <v>108</v>
+      </c>
+      <c r="E126" t="s">
+        <v>193</v>
+      </c>
+      <c r="H126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>244</v>
+      </c>
+      <c r="C127" t="s">
+        <v>24</v>
+      </c>
+      <c r="D127" t="s">
+        <v>108</v>
+      </c>
+      <c r="E127" t="s">
+        <v>195</v>
+      </c>
+      <c r="H127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>245</v>
+      </c>
+      <c r="C128" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" t="s">
+        <v>108</v>
+      </c>
+      <c r="E128" t="s">
+        <v>197</v>
+      </c>
+      <c r="H128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>246</v>
+      </c>
+      <c r="C129" t="s">
+        <v>24</v>
+      </c>
+      <c r="D129" t="s">
+        <v>108</v>
+      </c>
+      <c r="E129" t="s">
+        <v>199</v>
+      </c>
+      <c r="H129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>247</v>
+      </c>
+      <c r="C130" t="s">
+        <v>24</v>
+      </c>
+      <c r="D130" t="s">
+        <v>108</v>
+      </c>
+      <c r="E130" t="s">
+        <v>201</v>
+      </c>
+      <c r="H130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>248</v>
+      </c>
+      <c r="C131" t="s">
+        <v>24</v>
+      </c>
+      <c r="D131" t="s">
+        <v>108</v>
+      </c>
+      <c r="E131" t="s">
+        <v>203</v>
+      </c>
+      <c r="H131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>249</v>
+      </c>
+      <c r="C132" t="s">
+        <v>24</v>
+      </c>
+      <c r="D132" t="s">
+        <v>108</v>
+      </c>
+      <c r="E132" t="s">
+        <v>205</v>
+      </c>
+      <c r="H132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>250</v>
+      </c>
+      <c r="C133" t="s">
+        <v>24</v>
+      </c>
+      <c r="D133" t="s">
+        <v>108</v>
+      </c>
+      <c r="E133" t="s">
+        <v>207</v>
+      </c>
+      <c r="H133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>251</v>
+      </c>
+      <c r="C134" t="s">
+        <v>24</v>
+      </c>
+      <c r="D134" t="s">
+        <v>108</v>
+      </c>
+      <c r="E134" t="s">
+        <v>209</v>
+      </c>
+      <c r="H134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>252</v>
+      </c>
+      <c r="C135" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" t="s">
+        <v>108</v>
+      </c>
+      <c r="E135" t="s">
+        <v>211</v>
+      </c>
+      <c r="H135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>253</v>
+      </c>
+      <c r="C136" t="s">
+        <v>24</v>
+      </c>
+      <c r="D136" t="s">
+        <v>108</v>
+      </c>
+      <c r="E136" t="s">
+        <v>213</v>
+      </c>
+      <c r="H136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>254</v>
+      </c>
+      <c r="C137" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" t="s">
+        <v>108</v>
+      </c>
+      <c r="E137" t="s">
+        <v>215</v>
+      </c>
+      <c r="H137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>255</v>
+      </c>
+      <c r="C138" t="s">
+        <v>24</v>
+      </c>
+      <c r="D138" t="s">
+        <v>105</v>
+      </c>
+      <c r="E138" t="s">
+        <v>256</v>
+      </c>
+      <c r="H138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>257</v>
+      </c>
+      <c r="C139" t="s">
+        <v>24</v>
+      </c>
+      <c r="D139" t="s">
+        <v>108</v>
+      </c>
+      <c r="E139" t="s">
+        <v>258</v>
+      </c>
+      <c r="H139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>259</v>
+      </c>
+      <c r="C140" t="s">
+        <v>24</v>
+      </c>
+      <c r="D140" t="s">
+        <v>108</v>
+      </c>
+      <c r="E140" t="s">
+        <v>260</v>
+      </c>
+      <c r="H140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C141" t="s">
+        <v>24</v>
+      </c>
+      <c r="D141" t="s">
+        <v>108</v>
+      </c>
+      <c r="E141" t="s">
+        <v>262</v>
+      </c>
+      <c r="H141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>263</v>
+      </c>
+      <c r="C142" t="s">
+        <v>24</v>
+      </c>
+      <c r="D142" t="s">
+        <v>108</v>
+      </c>
+      <c r="E142" t="s">
+        <v>264</v>
+      </c>
+      <c r="H142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>265</v>
+      </c>
+      <c r="C143" t="s">
+        <v>24</v>
+      </c>
+      <c r="D143" t="s">
+        <v>108</v>
+      </c>
+      <c r="E143" t="s">
+        <v>266</v>
+      </c>
+      <c r="H143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>267</v>
+      </c>
+      <c r="C144" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" t="s">
+        <v>108</v>
+      </c>
+      <c r="E144" t="s">
+        <v>268</v>
+      </c>
+      <c r="H144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>269</v>
+      </c>
+      <c r="C145" t="s">
+        <v>24</v>
+      </c>
+      <c r="D145" t="s">
+        <v>108</v>
+      </c>
+      <c r="E145" t="s">
+        <v>270</v>
+      </c>
+      <c r="H145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>271</v>
+      </c>
+      <c r="C146" t="s">
+        <v>24</v>
+      </c>
+      <c r="D146" t="s">
+        <v>108</v>
+      </c>
+      <c r="E146" t="s">
+        <v>272</v>
+      </c>
+      <c r="H146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>273</v>
+      </c>
+      <c r="C147" t="s">
+        <v>24</v>
+      </c>
+      <c r="D147" t="s">
+        <v>108</v>
+      </c>
+      <c r="E147" t="s">
+        <v>274</v>
+      </c>
+      <c r="H147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>275</v>
+      </c>
+      <c r="C148" t="s">
+        <v>24</v>
+      </c>
+      <c r="D148" t="s">
+        <v>108</v>
+      </c>
+      <c r="E148" t="s">
+        <v>276</v>
+      </c>
+      <c r="H148" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>277</v>
+      </c>
+      <c r="C149" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149" t="s">
+        <v>108</v>
+      </c>
+      <c r="E149" t="s">
+        <v>278</v>
+      </c>
+      <c r="H149" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>279</v>
+      </c>
+      <c r="C150" t="s">
+        <v>24</v>
+      </c>
+      <c r="D150" t="s">
+        <v>108</v>
+      </c>
+      <c r="E150" t="s">
+        <v>280</v>
+      </c>
+      <c r="H150" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>281</v>
+      </c>
+      <c r="C151" t="s">
+        <v>24</v>
+      </c>
+      <c r="D151" t="s">
+        <v>105</v>
+      </c>
+      <c r="E151" t="s">
+        <v>256</v>
+      </c>
+      <c r="H151" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>282</v>
+      </c>
+      <c r="C152" t="s">
+        <v>24</v>
+      </c>
+      <c r="D152" t="s">
+        <v>108</v>
+      </c>
+      <c r="E152" t="s">
+        <v>258</v>
+      </c>
+      <c r="H152" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>283</v>
+      </c>
+      <c r="C153" t="s">
+        <v>24</v>
+      </c>
+      <c r="D153" t="s">
+        <v>108</v>
+      </c>
+      <c r="E153" t="s">
+        <v>260</v>
+      </c>
+      <c r="H153" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>284</v>
+      </c>
+      <c r="C154" t="s">
+        <v>24</v>
+      </c>
+      <c r="D154" t="s">
+        <v>108</v>
+      </c>
+      <c r="E154" t="s">
+        <v>262</v>
+      </c>
+      <c r="H154" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>285</v>
+      </c>
+      <c r="C155" t="s">
+        <v>24</v>
+      </c>
+      <c r="D155" t="s">
+        <v>108</v>
+      </c>
+      <c r="E155" t="s">
+        <v>264</v>
+      </c>
+      <c r="H155" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>286</v>
+      </c>
+      <c r="C156" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156" t="s">
+        <v>108</v>
+      </c>
+      <c r="E156" t="s">
+        <v>266</v>
+      </c>
+      <c r="H156" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>287</v>
+      </c>
+      <c r="C157" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" t="s">
+        <v>108</v>
+      </c>
+      <c r="E157" t="s">
+        <v>268</v>
+      </c>
+      <c r="H157" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>288</v>
+      </c>
+      <c r="C158" t="s">
+        <v>24</v>
+      </c>
+      <c r="D158" t="s">
+        <v>108</v>
+      </c>
+      <c r="E158" t="s">
+        <v>270</v>
+      </c>
+      <c r="H158" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>289</v>
+      </c>
+      <c r="C159" t="s">
+        <v>24</v>
+      </c>
+      <c r="D159" t="s">
+        <v>108</v>
+      </c>
+      <c r="E159" t="s">
+        <v>272</v>
+      </c>
+      <c r="H159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>290</v>
+      </c>
+      <c r="C160" t="s">
+        <v>24</v>
+      </c>
+      <c r="D160" t="s">
+        <v>108</v>
+      </c>
+      <c r="E160" t="s">
+        <v>274</v>
+      </c>
+      <c r="H160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>291</v>
+      </c>
+      <c r="C161" t="s">
+        <v>24</v>
+      </c>
+      <c r="D161" t="s">
+        <v>108</v>
+      </c>
+      <c r="E161" t="s">
+        <v>276</v>
+      </c>
+      <c r="H161" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>292</v>
+      </c>
+      <c r="C162" t="s">
+        <v>24</v>
+      </c>
+      <c r="D162" t="s">
+        <v>108</v>
+      </c>
+      <c r="E162" t="s">
+        <v>278</v>
+      </c>
+      <c r="H162" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>293</v>
+      </c>
+      <c r="C163" t="s">
+        <v>24</v>
+      </c>
+      <c r="D163" t="s">
+        <v>108</v>
+      </c>
+      <c r="E163" t="s">
+        <v>280</v>
+      </c>
+      <c r="H163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>294</v>
+      </c>
+      <c r="C164" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" t="s">
+        <v>105</v>
+      </c>
+      <c r="E164" t="s">
+        <v>256</v>
+      </c>
+      <c r="H164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>295</v>
+      </c>
+      <c r="C165" t="s">
+        <v>24</v>
+      </c>
+      <c r="D165" t="s">
+        <v>108</v>
+      </c>
+      <c r="E165" t="s">
+        <v>258</v>
+      </c>
+      <c r="H165" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>296</v>
+      </c>
+      <c r="C166" t="s">
+        <v>24</v>
+      </c>
+      <c r="D166" t="s">
+        <v>108</v>
+      </c>
+      <c r="E166" t="s">
+        <v>260</v>
+      </c>
+      <c r="H166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>297</v>
+      </c>
+      <c r="C167" t="s">
+        <v>24</v>
+      </c>
+      <c r="D167" t="s">
+        <v>108</v>
+      </c>
+      <c r="E167" t="s">
+        <v>262</v>
+      </c>
+      <c r="H167" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>298</v>
+      </c>
+      <c r="C168" t="s">
+        <v>24</v>
+      </c>
+      <c r="D168" t="s">
+        <v>108</v>
+      </c>
+      <c r="E168" t="s">
+        <v>264</v>
+      </c>
+      <c r="H168" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>299</v>
+      </c>
+      <c r="C169" t="s">
+        <v>24</v>
+      </c>
+      <c r="D169" t="s">
+        <v>108</v>
+      </c>
+      <c r="E169" t="s">
+        <v>266</v>
+      </c>
+      <c r="H169" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>300</v>
+      </c>
+      <c r="C170" t="s">
+        <v>24</v>
+      </c>
+      <c r="D170" t="s">
+        <v>108</v>
+      </c>
+      <c r="E170" t="s">
+        <v>268</v>
+      </c>
+      <c r="H170" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>301</v>
+      </c>
+      <c r="C171" t="s">
+        <v>24</v>
+      </c>
+      <c r="D171" t="s">
+        <v>108</v>
+      </c>
+      <c r="E171" t="s">
+        <v>270</v>
+      </c>
+      <c r="H171" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>302</v>
+      </c>
+      <c r="C172" t="s">
+        <v>24</v>
+      </c>
+      <c r="D172" t="s">
+        <v>108</v>
+      </c>
+      <c r="E172" t="s">
+        <v>272</v>
+      </c>
+      <c r="H172" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>303</v>
+      </c>
+      <c r="C173" t="s">
+        <v>24</v>
+      </c>
+      <c r="D173" t="s">
+        <v>108</v>
+      </c>
+      <c r="E173" t="s">
+        <v>274</v>
+      </c>
+      <c r="H173" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>304</v>
+      </c>
+      <c r="C174" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174" t="s">
+        <v>108</v>
+      </c>
+      <c r="E174" t="s">
+        <v>276</v>
+      </c>
+      <c r="H174" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>305</v>
+      </c>
+      <c r="C175" t="s">
+        <v>24</v>
+      </c>
+      <c r="D175" t="s">
+        <v>108</v>
+      </c>
+      <c r="E175" t="s">
+        <v>278</v>
+      </c>
+      <c r="H175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>306</v>
+      </c>
+      <c r="C176" t="s">
+        <v>24</v>
+      </c>
+      <c r="D176" t="s">
+        <v>108</v>
+      </c>
+      <c r="E176" t="s">
+        <v>280</v>
+      </c>
+      <c r="H176" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>307</v>
+      </c>
+      <c r="C177" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" t="s">
+        <v>105</v>
+      </c>
+      <c r="E177" t="s">
+        <v>256</v>
+      </c>
+      <c r="H177" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>308</v>
+      </c>
+      <c r="C178" t="s">
+        <v>24</v>
+      </c>
+      <c r="D178" t="s">
+        <v>108</v>
+      </c>
+      <c r="E178" t="s">
+        <v>258</v>
+      </c>
+      <c r="H178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>309</v>
+      </c>
+      <c r="C179" t="s">
+        <v>24</v>
+      </c>
+      <c r="D179" t="s">
+        <v>108</v>
+      </c>
+      <c r="E179" t="s">
+        <v>260</v>
+      </c>
+      <c r="H179" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>310</v>
+      </c>
+      <c r="C180" t="s">
+        <v>24</v>
+      </c>
+      <c r="D180" t="s">
+        <v>108</v>
+      </c>
+      <c r="E180" t="s">
+        <v>262</v>
+      </c>
+      <c r="H180" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>311</v>
+      </c>
+      <c r="C181" t="s">
+        <v>24</v>
+      </c>
+      <c r="D181" t="s">
+        <v>108</v>
+      </c>
+      <c r="E181" t="s">
+        <v>264</v>
+      </c>
+      <c r="H181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>312</v>
+      </c>
+      <c r="C182" t="s">
+        <v>24</v>
+      </c>
+      <c r="D182" t="s">
+        <v>108</v>
+      </c>
+      <c r="E182" t="s">
+        <v>266</v>
+      </c>
+      <c r="H182" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>313</v>
+      </c>
+      <c r="C183" t="s">
+        <v>24</v>
+      </c>
+      <c r="D183" t="s">
+        <v>108</v>
+      </c>
+      <c r="E183" t="s">
+        <v>268</v>
+      </c>
+      <c r="H183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>314</v>
+      </c>
+      <c r="C184" t="s">
+        <v>24</v>
+      </c>
+      <c r="D184" t="s">
+        <v>108</v>
+      </c>
+      <c r="E184" t="s">
+        <v>270</v>
+      </c>
+      <c r="H184" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>315</v>
+      </c>
+      <c r="C185" t="s">
+        <v>24</v>
+      </c>
+      <c r="D185" t="s">
+        <v>108</v>
+      </c>
+      <c r="E185" t="s">
+        <v>272</v>
+      </c>
+      <c r="H185" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>316</v>
+      </c>
+      <c r="C186" t="s">
+        <v>24</v>
+      </c>
+      <c r="D186" t="s">
+        <v>108</v>
+      </c>
+      <c r="E186" t="s">
+        <v>274</v>
+      </c>
+      <c r="H186" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>317</v>
+      </c>
+      <c r="C187" t="s">
+        <v>24</v>
+      </c>
+      <c r="D187" t="s">
+        <v>108</v>
+      </c>
+      <c r="E187" t="s">
+        <v>276</v>
+      </c>
+      <c r="H187" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>318</v>
+      </c>
+      <c r="C188" t="s">
+        <v>24</v>
+      </c>
+      <c r="D188" t="s">
+        <v>108</v>
+      </c>
+      <c r="E188" t="s">
+        <v>278</v>
+      </c>
+      <c r="H188" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>319</v>
+      </c>
+      <c r="C189" t="s">
+        <v>24</v>
+      </c>
+      <c r="D189" t="s">
+        <v>108</v>
+      </c>
+      <c r="E189" t="s">
+        <v>280</v>
+      </c>
+      <c r="H189" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>320</v>
+      </c>
+      <c r="C190" t="s">
+        <v>24</v>
+      </c>
+      <c r="D190" t="s">
+        <v>105</v>
+      </c>
+      <c r="E190" t="s">
+        <v>321</v>
+      </c>
+      <c r="H190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>322</v>
+      </c>
+      <c r="C191" t="s">
+        <v>24</v>
+      </c>
+      <c r="D191" t="s">
+        <v>108</v>
+      </c>
+      <c r="E191" t="s">
+        <v>323</v>
+      </c>
+      <c r="H191" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>324</v>
+      </c>
+      <c r="C192" t="s">
+        <v>24</v>
+      </c>
+      <c r="D192" t="s">
+        <v>108</v>
+      </c>
+      <c r="E192" t="s">
+        <v>325</v>
+      </c>
+      <c r="H192" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>326</v>
+      </c>
+      <c r="C193" t="s">
+        <v>24</v>
+      </c>
+      <c r="D193" t="s">
+        <v>108</v>
+      </c>
+      <c r="E193" t="s">
+        <v>327</v>
+      </c>
+      <c r="H193" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>328</v>
+      </c>
+      <c r="C194" t="s">
+        <v>24</v>
+      </c>
+      <c r="D194" t="s">
+        <v>108</v>
+      </c>
+      <c r="E194" t="s">
+        <v>329</v>
+      </c>
+      <c r="H194" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>330</v>
+      </c>
+      <c r="C195" t="s">
+        <v>24</v>
+      </c>
+      <c r="D195" t="s">
+        <v>108</v>
+      </c>
+      <c r="E195" t="s">
+        <v>331</v>
+      </c>
+      <c r="H195" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>332</v>
+      </c>
+      <c r="C196" t="s">
+        <v>24</v>
+      </c>
+      <c r="D196" t="s">
+        <v>105</v>
+      </c>
+      <c r="E196" t="s">
+        <v>321</v>
+      </c>
+      <c r="H196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>333</v>
+      </c>
+      <c r="C197" t="s">
+        <v>24</v>
+      </c>
+      <c r="D197" t="s">
+        <v>108</v>
+      </c>
+      <c r="E197" t="s">
+        <v>323</v>
+      </c>
+      <c r="H197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>334</v>
+      </c>
+      <c r="C198" t="s">
+        <v>24</v>
+      </c>
+      <c r="D198" t="s">
+        <v>108</v>
+      </c>
+      <c r="E198" t="s">
+        <v>325</v>
+      </c>
+      <c r="H198" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>335</v>
+      </c>
+      <c r="C199" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" t="s">
+        <v>108</v>
+      </c>
+      <c r="E199" t="s">
+        <v>327</v>
+      </c>
+      <c r="H199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>336</v>
+      </c>
+      <c r="C200" t="s">
+        <v>24</v>
+      </c>
+      <c r="D200" t="s">
+        <v>108</v>
+      </c>
+      <c r="E200" t="s">
+        <v>329</v>
+      </c>
+      <c r="H200" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>337</v>
+      </c>
+      <c r="C201" t="s">
+        <v>24</v>
+      </c>
+      <c r="D201" t="s">
+        <v>108</v>
+      </c>
+      <c r="E201" t="s">
+        <v>331</v>
+      </c>
+      <c r="H201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>338</v>
+      </c>
+      <c r="C202" t="s">
+        <v>24</v>
+      </c>
+      <c r="D202" t="s">
+        <v>105</v>
+      </c>
+      <c r="E202" t="s">
+        <v>321</v>
+      </c>
+      <c r="H202" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>339</v>
+      </c>
+      <c r="C203" t="s">
+        <v>24</v>
+      </c>
+      <c r="D203" t="s">
+        <v>108</v>
+      </c>
+      <c r="E203" t="s">
+        <v>323</v>
+      </c>
+      <c r="H203" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>340</v>
+      </c>
+      <c r="C204" t="s">
+        <v>24</v>
+      </c>
+      <c r="D204" t="s">
+        <v>108</v>
+      </c>
+      <c r="E204" t="s">
+        <v>325</v>
+      </c>
+      <c r="H204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>341</v>
+      </c>
+      <c r="C205" t="s">
+        <v>24</v>
+      </c>
+      <c r="D205" t="s">
+        <v>108</v>
+      </c>
+      <c r="E205" t="s">
+        <v>327</v>
+      </c>
+      <c r="H205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>342</v>
+      </c>
+      <c r="C206" t="s">
+        <v>24</v>
+      </c>
+      <c r="D206" t="s">
+        <v>108</v>
+      </c>
+      <c r="E206" t="s">
+        <v>329</v>
+      </c>
+      <c r="H206" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>343</v>
+      </c>
+      <c r="C207" t="s">
+        <v>24</v>
+      </c>
+      <c r="D207" t="s">
+        <v>108</v>
+      </c>
+      <c r="E207" t="s">
+        <v>331</v>
+      </c>
+      <c r="H207" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>344</v>
+      </c>
+      <c r="C208" t="s">
+        <v>24</v>
+      </c>
+      <c r="D208" t="s">
+        <v>105</v>
+      </c>
+      <c r="E208" t="s">
+        <v>321</v>
+      </c>
+      <c r="H208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>345</v>
+      </c>
+      <c r="C209" t="s">
+        <v>24</v>
+      </c>
+      <c r="D209" t="s">
+        <v>108</v>
+      </c>
+      <c r="E209" t="s">
+        <v>323</v>
+      </c>
+      <c r="H209" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>346</v>
+      </c>
+      <c r="C210" t="s">
+        <v>24</v>
+      </c>
+      <c r="D210" t="s">
+        <v>108</v>
+      </c>
+      <c r="E210" t="s">
+        <v>325</v>
+      </c>
+      <c r="H210" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>347</v>
+      </c>
+      <c r="C211" t="s">
+        <v>24</v>
+      </c>
+      <c r="D211" t="s">
+        <v>108</v>
+      </c>
+      <c r="E211" t="s">
+        <v>327</v>
+      </c>
+      <c r="H211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>348</v>
+      </c>
+      <c r="C212" t="s">
+        <v>24</v>
+      </c>
+      <c r="D212" t="s">
+        <v>108</v>
+      </c>
+      <c r="E212" t="s">
+        <v>329</v>
+      </c>
+      <c r="H212" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>349</v>
+      </c>
+      <c r="C213" t="s">
+        <v>24</v>
+      </c>
+      <c r="D213" t="s">
+        <v>108</v>
+      </c>
+      <c r="E213" t="s">
+        <v>331</v>
+      </c>
+      <c r="H213" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>350</v>
+      </c>
+      <c r="C214" t="s">
+        <v>24</v>
+      </c>
+      <c r="D214" t="s">
+        <v>105</v>
+      </c>
+      <c r="E214" t="s">
+        <v>351</v>
+      </c>
+      <c r="H214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>352</v>
+      </c>
+      <c r="C215" t="s">
+        <v>24</v>
+      </c>
+      <c r="D215" t="s">
+        <v>108</v>
+      </c>
+      <c r="E215" t="s">
+        <v>353</v>
+      </c>
+      <c r="H215" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>354</v>
+      </c>
+      <c r="C216" t="s">
+        <v>24</v>
+      </c>
+      <c r="D216" t="s">
+        <v>108</v>
+      </c>
+      <c r="E216" t="s">
+        <v>355</v>
+      </c>
+      <c r="H216" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>356</v>
+      </c>
+      <c r="C217" t="s">
+        <v>24</v>
+      </c>
+      <c r="D217" t="s">
+        <v>108</v>
+      </c>
+      <c r="E217" t="s">
+        <v>357</v>
+      </c>
+      <c r="H217" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>358</v>
+      </c>
+      <c r="C218" t="s">
+        <v>24</v>
+      </c>
+      <c r="D218" t="s">
+        <v>108</v>
+      </c>
+      <c r="E218" t="s">
+        <v>359</v>
+      </c>
+      <c r="H218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>360</v>
+      </c>
+      <c r="C219" t="s">
+        <v>24</v>
+      </c>
+      <c r="D219" t="s">
+        <v>108</v>
+      </c>
+      <c r="E219" t="s">
+        <v>361</v>
+      </c>
+      <c r="H219" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>362</v>
+      </c>
+      <c r="C220" t="s">
+        <v>24</v>
+      </c>
+      <c r="D220" t="s">
+        <v>108</v>
+      </c>
+      <c r="E220" t="s">
+        <v>363</v>
+      </c>
+      <c r="H220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>364</v>
+      </c>
+      <c r="C221" t="s">
+        <v>24</v>
+      </c>
+      <c r="D221" t="s">
+        <v>105</v>
+      </c>
+      <c r="E221" t="s">
+        <v>351</v>
+      </c>
+      <c r="H221" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>365</v>
+      </c>
+      <c r="C222" t="s">
+        <v>24</v>
+      </c>
+      <c r="D222" t="s">
+        <v>108</v>
+      </c>
+      <c r="E222" t="s">
+        <v>353</v>
+      </c>
+      <c r="H222" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>366</v>
+      </c>
+      <c r="C223" t="s">
+        <v>24</v>
+      </c>
+      <c r="D223" t="s">
+        <v>108</v>
+      </c>
+      <c r="E223" t="s">
+        <v>355</v>
+      </c>
+      <c r="H223" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>367</v>
+      </c>
+      <c r="C224" t="s">
+        <v>24</v>
+      </c>
+      <c r="D224" t="s">
+        <v>108</v>
+      </c>
+      <c r="E224" t="s">
+        <v>357</v>
+      </c>
+      <c r="H224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>368</v>
+      </c>
+      <c r="C225" t="s">
+        <v>24</v>
+      </c>
+      <c r="D225" t="s">
+        <v>108</v>
+      </c>
+      <c r="E225" t="s">
+        <v>359</v>
+      </c>
+      <c r="H225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>369</v>
+      </c>
+      <c r="C226" t="s">
+        <v>24</v>
+      </c>
+      <c r="D226" t="s">
+        <v>108</v>
+      </c>
+      <c r="E226" t="s">
+        <v>361</v>
+      </c>
+      <c r="H226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>370</v>
+      </c>
+      <c r="C227" t="s">
+        <v>24</v>
+      </c>
+      <c r="D227" t="s">
+        <v>108</v>
+      </c>
+      <c r="E227" t="s">
+        <v>363</v>
+      </c>
+      <c r="H227" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>371</v>
+      </c>
+      <c r="C228" t="s">
+        <v>24</v>
+      </c>
+      <c r="D228" t="s">
+        <v>105</v>
+      </c>
+      <c r="E228" t="s">
+        <v>351</v>
+      </c>
+      <c r="H228" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>372</v>
+      </c>
+      <c r="C229" t="s">
+        <v>24</v>
+      </c>
+      <c r="D229" t="s">
+        <v>108</v>
+      </c>
+      <c r="E229" t="s">
+        <v>353</v>
+      </c>
+      <c r="H229" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>373</v>
+      </c>
+      <c r="C230" t="s">
+        <v>24</v>
+      </c>
+      <c r="D230" t="s">
+        <v>108</v>
+      </c>
+      <c r="E230" t="s">
+        <v>355</v>
+      </c>
+      <c r="H230" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>374</v>
+      </c>
+      <c r="C231" t="s">
+        <v>24</v>
+      </c>
+      <c r="D231" t="s">
+        <v>108</v>
+      </c>
+      <c r="E231" t="s">
+        <v>357</v>
+      </c>
+      <c r="H231" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>375</v>
+      </c>
+      <c r="C232" t="s">
+        <v>24</v>
+      </c>
+      <c r="D232" t="s">
+        <v>108</v>
+      </c>
+      <c r="E232" t="s">
+        <v>359</v>
+      </c>
+      <c r="H232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="B233" t="s">
+        <v>376</v>
+      </c>
+      <c r="C233" t="s">
+        <v>24</v>
+      </c>
+      <c r="D233" t="s">
+        <v>108</v>
+      </c>
+      <c r="E233" t="s">
+        <v>361</v>
+      </c>
+      <c r="H233" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="B234" t="s">
+        <v>377</v>
+      </c>
+      <c r="C234" t="s">
+        <v>24</v>
+      </c>
+      <c r="D234" t="s">
+        <v>108</v>
+      </c>
+      <c r="E234" t="s">
+        <v>363</v>
+      </c>
+      <c r="H234" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="B235" t="s">
+        <v>378</v>
+      </c>
+      <c r="C235" t="s">
+        <v>24</v>
+      </c>
+      <c r="D235" t="s">
+        <v>105</v>
+      </c>
+      <c r="E235" t="s">
+        <v>351</v>
+      </c>
+      <c r="H235" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="B236" t="s">
+        <v>379</v>
+      </c>
+      <c r="C236" t="s">
+        <v>24</v>
+      </c>
+      <c r="D236" t="s">
+        <v>108</v>
+      </c>
+      <c r="E236" t="s">
+        <v>353</v>
+      </c>
+      <c r="H236" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="B237" t="s">
+        <v>380</v>
+      </c>
+      <c r="C237" t="s">
+        <v>24</v>
+      </c>
+      <c r="D237" t="s">
+        <v>108</v>
+      </c>
+      <c r="E237" t="s">
+        <v>355</v>
+      </c>
+      <c r="H237" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="B238" t="s">
+        <v>381</v>
+      </c>
+      <c r="C238" t="s">
+        <v>24</v>
+      </c>
+      <c r="D238" t="s">
+        <v>108</v>
+      </c>
+      <c r="E238" t="s">
+        <v>357</v>
+      </c>
+      <c r="H238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="B239" t="s">
+        <v>382</v>
+      </c>
+      <c r="C239" t="s">
+        <v>24</v>
+      </c>
+      <c r="D239" t="s">
+        <v>108</v>
+      </c>
+      <c r="E239" t="s">
+        <v>359</v>
+      </c>
+      <c r="H239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="B240" t="s">
+        <v>383</v>
+      </c>
+      <c r="C240" t="s">
+        <v>24</v>
+      </c>
+      <c r="D240" t="s">
+        <v>108</v>
+      </c>
+      <c r="E240" t="s">
+        <v>361</v>
+      </c>
+      <c r="H240" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="B241" t="s">
+        <v>384</v>
+      </c>
+      <c r="C241" t="s">
+        <v>24</v>
+      </c>
+      <c r="D241" t="s">
+        <v>108</v>
+      </c>
+      <c r="E241" t="s">
+        <v>363</v>
+      </c>
+      <c r="H241" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="6"/>
+    <workbookView windowHeight="17940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1498" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="386">
   <si>
     <t>id</t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t>/frontend/v1/member/bank</t>
+  </si>
+  <si>
+    <t>获取所有消息</t>
   </si>
   <si>
     <t>用户注册</t>
@@ -1183,10 +1186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1206,7 +1209,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1220,22 +1246,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1257,23 +1276,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1289,21 +1294,27 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1312,30 +1323,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1350,61 +1353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,25 +1371,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,13 +1419,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1476,25 +1443,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1506,13 +1491,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1524,13 +1509,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1541,39 +1544,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1588,32 +1558,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1641,16 +1585,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1659,16 +1662,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1678,112 +1681,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2373,8 +2376,8 @@
   <sheetPr/>
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -3143,9 +3146,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:8">
       <c r="A40" s="4">
         <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3201,16 +3216,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3270,16 +3285,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3287,16 +3302,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -3307,16 +3322,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -3327,16 +3342,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -3347,16 +3362,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H6">
         <v>22</v>
@@ -3367,16 +3382,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H7">
         <v>22</v>
@@ -3387,16 +3402,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H8">
         <v>36</v>
@@ -3457,16 +3472,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -3483,8 +3498,8 @@
   <sheetPr/>
   <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="D239" sqref="D239"/>
+    <sheetView topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -3525,16 +3540,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3545,16 +3560,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -3565,16 +3580,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -3585,16 +3600,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -3605,16 +3620,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -3625,16 +3640,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -3645,16 +3660,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -3665,16 +3680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -3685,16 +3700,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -3705,16 +3720,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -3725,16 +3740,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -3745,16 +3760,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -3765,16 +3780,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -3785,16 +3800,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -3805,16 +3820,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -3825,16 +3840,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -3845,16 +3860,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -3865,16 +3880,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -3885,16 +3900,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -3905,16 +3920,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -3925,16 +3940,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -3945,16 +3960,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -3965,16 +3980,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -3985,16 +4000,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -4005,16 +4020,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -4025,16 +4040,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -4045,16 +4060,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -4065,16 +4080,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -4085,16 +4100,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -4105,16 +4120,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -4125,16 +4140,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -4145,16 +4160,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -4165,16 +4180,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -4185,16 +4200,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -4205,16 +4220,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -4225,16 +4240,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E37" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -4245,16 +4260,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -4265,16 +4280,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -4285,16 +4300,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -4305,16 +4320,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -4325,16 +4340,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
         <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -4345,16 +4360,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
         <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -4365,16 +4380,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C44" t="s">
         <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -4385,16 +4400,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C45" t="s">
         <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -4405,16 +4420,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C46" t="s">
         <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -4425,16 +4440,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s">
         <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -4445,16 +4460,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C48" t="s">
         <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -4465,16 +4480,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C49" t="s">
         <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -4485,16 +4500,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
         <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E50" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -4505,16 +4520,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C51" t="s">
         <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -4525,16 +4540,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
         <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E52" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -4545,16 +4560,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s">
         <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -4565,16 +4580,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C54" t="s">
         <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -4585,16 +4600,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C55" t="s">
         <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E55" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -4605,16 +4620,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
         <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H56" t="s">
         <v>13</v>
@@ -4625,16 +4640,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
         <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E57" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H57" t="s">
         <v>13</v>
@@ -4645,16 +4660,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C58" t="s">
         <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E58" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
@@ -4665,16 +4680,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C59" t="s">
         <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E59" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
@@ -4685,16 +4700,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C60" t="s">
         <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
@@ -4705,16 +4720,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C61" t="s">
         <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E61" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>
@@ -4725,16 +4740,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s">
         <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H62" t="s">
         <v>13</v>
@@ -4745,16 +4760,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C63" t="s">
         <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E63" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H63" t="s">
         <v>13</v>
@@ -4765,16 +4780,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s">
         <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E64" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H64" t="s">
         <v>13</v>
@@ -4785,16 +4800,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C65" t="s">
         <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E65" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H65" t="s">
         <v>13</v>
@@ -4805,16 +4820,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C66" t="s">
         <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E66" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H66" t="s">
         <v>13</v>
@@ -4825,16 +4840,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C67" t="s">
         <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E67" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H67" t="s">
         <v>13</v>
@@ -4845,16 +4860,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C68" t="s">
         <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E68" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H68" t="s">
         <v>13</v>
@@ -4865,16 +4880,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
         <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E69" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H69" t="s">
         <v>13</v>
@@ -4885,16 +4900,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
         <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E70" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
@@ -4905,16 +4920,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C71" t="s">
         <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E71" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H71" t="s">
         <v>13</v>
@@ -4925,16 +4940,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C72" t="s">
         <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E72" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H72" t="s">
         <v>13</v>
@@ -4945,16 +4960,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C73" t="s">
         <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E73" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H73" t="s">
         <v>13</v>
@@ -4965,16 +4980,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C74" t="s">
         <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E74" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H74" t="s">
         <v>13</v>
@@ -4985,16 +5000,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C75" t="s">
         <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H75" t="s">
         <v>13</v>
@@ -5005,16 +5020,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C76" t="s">
         <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E76" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
@@ -5025,16 +5040,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C77" t="s">
         <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H77" t="s">
         <v>13</v>
@@ -5045,16 +5060,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C78" t="s">
         <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E78" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
@@ -5065,16 +5080,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C79" t="s">
         <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H79" t="s">
         <v>13</v>
@@ -5085,16 +5100,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C80" t="s">
         <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -5105,16 +5120,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C81" t="s">
         <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H81" t="s">
         <v>13</v>
@@ -5125,16 +5140,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C82" t="s">
         <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E82" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H82" t="s">
         <v>13</v>
@@ -5145,16 +5160,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C83" t="s">
         <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E83" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H83" t="s">
         <v>13</v>
@@ -5165,16 +5180,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C84" t="s">
         <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H84" t="s">
         <v>13</v>
@@ -5185,16 +5200,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C85" t="s">
         <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E85" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H85" t="s">
         <v>13</v>
@@ -5205,16 +5220,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C86" t="s">
         <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H86" t="s">
         <v>13</v>
@@ -5225,16 +5240,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C87" t="s">
         <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
@@ -5245,16 +5260,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C88" t="s">
         <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E88" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H88" t="s">
         <v>13</v>
@@ -5265,16 +5280,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C89" t="s">
         <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E89" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H89" t="s">
         <v>13</v>
@@ -5285,16 +5300,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C90" t="s">
         <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E90" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H90" t="s">
         <v>13</v>
@@ -5305,16 +5320,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C91" t="s">
         <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H91" t="s">
         <v>13</v>
@@ -5325,16 +5340,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C92" t="s">
         <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E92" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H92" t="s">
         <v>13</v>
@@ -5345,16 +5360,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C93" t="s">
         <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H93" t="s">
         <v>13</v>
@@ -5365,16 +5380,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C94" t="s">
         <v>24</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H94" t="s">
         <v>13</v>
@@ -5385,16 +5400,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C95" t="s">
         <v>24</v>
       </c>
       <c r="D95" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E95" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H95" t="s">
         <v>13</v>
@@ -5405,16 +5420,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C96" t="s">
         <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E96" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H96" t="s">
         <v>13</v>
@@ -5425,16 +5440,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C97" t="s">
         <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E97" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H97" t="s">
         <v>13</v>
@@ -5445,16 +5460,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C98" t="s">
         <v>24</v>
       </c>
       <c r="D98" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E98" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H98" t="s">
         <v>13</v>
@@ -5465,16 +5480,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C99" t="s">
         <v>24</v>
       </c>
       <c r="D99" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H99" t="s">
         <v>13</v>
@@ -5485,16 +5500,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C100" t="s">
         <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H100" t="s">
         <v>13</v>
@@ -5505,16 +5520,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C101" t="s">
         <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H101" t="s">
         <v>13</v>
@@ -5525,16 +5540,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C102" t="s">
         <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H102" t="s">
         <v>13</v>
@@ -5545,16 +5560,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C103" t="s">
         <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H103" t="s">
         <v>13</v>
@@ -5565,16 +5580,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C104" t="s">
         <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H104" t="s">
         <v>13</v>
@@ -5585,16 +5600,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C105" t="s">
         <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H105" t="s">
         <v>13</v>
@@ -5605,16 +5620,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C106" t="s">
         <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H106" t="s">
         <v>13</v>
@@ -5625,16 +5640,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C107" t="s">
         <v>24</v>
       </c>
       <c r="D107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H107" t="s">
         <v>13</v>
@@ -5645,16 +5660,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C108" t="s">
         <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H108" t="s">
         <v>13</v>
@@ -5665,16 +5680,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C109" t="s">
         <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H109" t="s">
         <v>13</v>
@@ -5685,16 +5700,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C110" t="s">
         <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H110" t="s">
         <v>13</v>
@@ -5705,16 +5720,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C111" t="s">
         <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H111" t="s">
         <v>13</v>
@@ -5725,16 +5740,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C112" t="s">
         <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E112" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H112" t="s">
         <v>13</v>
@@ -5745,16 +5760,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C113" t="s">
         <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E113" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H113" t="s">
         <v>13</v>
@@ -5765,16 +5780,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C114" t="s">
         <v>24</v>
       </c>
       <c r="D114" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E114" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H114" t="s">
         <v>13</v>
@@ -5785,16 +5800,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C115" t="s">
         <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E115" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H115" t="s">
         <v>13</v>
@@ -5805,16 +5820,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C116" t="s">
         <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E116" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H116" t="s">
         <v>13</v>
@@ -5825,16 +5840,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C117" t="s">
         <v>24</v>
       </c>
       <c r="D117" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E117" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H117" t="s">
         <v>13</v>
@@ -5845,16 +5860,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C118" t="s">
         <v>24</v>
       </c>
       <c r="D118" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E118" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H118" t="s">
         <v>13</v>
@@ -5865,16 +5880,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C119" t="s">
         <v>24</v>
       </c>
       <c r="D119" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E119" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H119" t="s">
         <v>13</v>
@@ -5885,16 +5900,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C120" t="s">
         <v>24</v>
       </c>
       <c r="D120" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E120" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H120" t="s">
         <v>13</v>
@@ -5905,16 +5920,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C121" t="s">
         <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E121" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H121" t="s">
         <v>13</v>
@@ -5925,16 +5940,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C122" t="s">
         <v>24</v>
       </c>
       <c r="D122" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E122" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H122" t="s">
         <v>13</v>
@@ -5945,16 +5960,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C123" t="s">
         <v>24</v>
       </c>
       <c r="D123" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E123" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H123" t="s">
         <v>13</v>
@@ -5965,16 +5980,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C124" t="s">
         <v>24</v>
       </c>
       <c r="D124" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E124" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H124" t="s">
         <v>13</v>
@@ -5985,16 +6000,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C125" t="s">
         <v>24</v>
       </c>
       <c r="D125" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E125" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H125" t="s">
         <v>13</v>
@@ -6005,16 +6020,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C126" t="s">
         <v>24</v>
       </c>
       <c r="D126" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E126" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H126" t="s">
         <v>13</v>
@@ -6025,16 +6040,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C127" t="s">
         <v>24</v>
       </c>
       <c r="D127" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E127" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H127" t="s">
         <v>13</v>
@@ -6045,16 +6060,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C128" t="s">
         <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E128" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H128" t="s">
         <v>13</v>
@@ -6065,16 +6080,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C129" t="s">
         <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E129" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H129" t="s">
         <v>13</v>
@@ -6085,16 +6100,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C130" t="s">
         <v>24</v>
       </c>
       <c r="D130" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E130" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H130" t="s">
         <v>13</v>
@@ -6105,16 +6120,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C131" t="s">
         <v>24</v>
       </c>
       <c r="D131" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E131" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H131" t="s">
         <v>13</v>
@@ -6125,16 +6140,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C132" t="s">
         <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E132" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H132" t="s">
         <v>13</v>
@@ -6145,16 +6160,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C133" t="s">
         <v>24</v>
       </c>
       <c r="D133" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E133" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H133" t="s">
         <v>13</v>
@@ -6165,16 +6180,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C134" t="s">
         <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E134" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H134" t="s">
         <v>13</v>
@@ -6185,16 +6200,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C135" t="s">
         <v>24</v>
       </c>
       <c r="D135" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E135" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H135" t="s">
         <v>13</v>
@@ -6205,16 +6220,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C136" t="s">
         <v>24</v>
       </c>
       <c r="D136" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E136" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H136" t="s">
         <v>13</v>
@@ -6225,16 +6240,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C137" t="s">
         <v>24</v>
       </c>
       <c r="D137" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E137" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H137" t="s">
         <v>13</v>
@@ -6245,16 +6260,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C138" t="s">
         <v>24</v>
       </c>
       <c r="D138" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E138" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H138" t="s">
         <v>13</v>
@@ -6265,16 +6280,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C139" t="s">
         <v>24</v>
       </c>
       <c r="D139" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E139" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H139" t="s">
         <v>13</v>
@@ -6285,16 +6300,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C140" t="s">
         <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E140" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H140" t="s">
         <v>13</v>
@@ -6305,16 +6320,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C141" t="s">
         <v>24</v>
       </c>
       <c r="D141" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E141" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H141" t="s">
         <v>13</v>
@@ -6325,16 +6340,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C142" t="s">
         <v>24</v>
       </c>
       <c r="D142" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E142" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H142" t="s">
         <v>13</v>
@@ -6345,16 +6360,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C143" t="s">
         <v>24</v>
       </c>
       <c r="D143" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E143" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H143" t="s">
         <v>13</v>
@@ -6365,16 +6380,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C144" t="s">
         <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E144" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H144" t="s">
         <v>13</v>
@@ -6385,16 +6400,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C145" t="s">
         <v>24</v>
       </c>
       <c r="D145" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E145" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H145" t="s">
         <v>13</v>
@@ -6405,16 +6420,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C146" t="s">
         <v>24</v>
       </c>
       <c r="D146" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E146" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H146" t="s">
         <v>13</v>
@@ -6425,16 +6440,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C147" t="s">
         <v>24</v>
       </c>
       <c r="D147" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E147" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H147" t="s">
         <v>13</v>
@@ -6445,16 +6460,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C148" t="s">
         <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E148" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H148" t="s">
         <v>13</v>
@@ -6465,16 +6480,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C149" t="s">
         <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E149" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H149" t="s">
         <v>13</v>
@@ -6485,16 +6500,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C150" t="s">
         <v>24</v>
       </c>
       <c r="D150" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E150" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H150" t="s">
         <v>13</v>
@@ -6505,16 +6520,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C151" t="s">
         <v>24</v>
       </c>
       <c r="D151" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E151" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H151" t="s">
         <v>13</v>
@@ -6525,16 +6540,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C152" t="s">
         <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E152" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H152" t="s">
         <v>13</v>
@@ -6545,16 +6560,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C153" t="s">
         <v>24</v>
       </c>
       <c r="D153" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E153" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H153" t="s">
         <v>13</v>
@@ -6565,16 +6580,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C154" t="s">
         <v>24</v>
       </c>
       <c r="D154" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E154" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H154" t="s">
         <v>13</v>
@@ -6585,16 +6600,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C155" t="s">
         <v>24</v>
       </c>
       <c r="D155" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E155" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H155" t="s">
         <v>13</v>
@@ -6605,16 +6620,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C156" t="s">
         <v>24</v>
       </c>
       <c r="D156" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E156" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H156" t="s">
         <v>13</v>
@@ -6625,16 +6640,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C157" t="s">
         <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E157" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H157" t="s">
         <v>13</v>
@@ -6645,16 +6660,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C158" t="s">
         <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E158" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H158" t="s">
         <v>13</v>
@@ -6665,16 +6680,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C159" t="s">
         <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E159" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H159" t="s">
         <v>13</v>
@@ -6685,16 +6700,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C160" t="s">
         <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E160" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H160" t="s">
         <v>13</v>
@@ -6705,16 +6720,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C161" t="s">
         <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E161" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H161" t="s">
         <v>13</v>
@@ -6725,16 +6740,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C162" t="s">
         <v>24</v>
       </c>
       <c r="D162" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E162" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H162" t="s">
         <v>13</v>
@@ -6745,16 +6760,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C163" t="s">
         <v>24</v>
       </c>
       <c r="D163" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E163" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H163" t="s">
         <v>13</v>
@@ -6765,16 +6780,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C164" t="s">
         <v>24</v>
       </c>
       <c r="D164" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E164" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H164" t="s">
         <v>13</v>
@@ -6785,16 +6800,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C165" t="s">
         <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E165" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H165" t="s">
         <v>13</v>
@@ -6805,16 +6820,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C166" t="s">
         <v>24</v>
       </c>
       <c r="D166" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E166" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H166" t="s">
         <v>13</v>
@@ -6825,16 +6840,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C167" t="s">
         <v>24</v>
       </c>
       <c r="D167" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E167" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H167" t="s">
         <v>13</v>
@@ -6845,16 +6860,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C168" t="s">
         <v>24</v>
       </c>
       <c r="D168" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E168" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H168" t="s">
         <v>13</v>
@@ -6865,16 +6880,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C169" t="s">
         <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E169" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H169" t="s">
         <v>13</v>
@@ -6885,16 +6900,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C170" t="s">
         <v>24</v>
       </c>
       <c r="D170" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E170" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H170" t="s">
         <v>13</v>
@@ -6905,16 +6920,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C171" t="s">
         <v>24</v>
       </c>
       <c r="D171" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E171" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H171" t="s">
         <v>13</v>
@@ -6925,16 +6940,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C172" t="s">
         <v>24</v>
       </c>
       <c r="D172" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E172" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H172" t="s">
         <v>13</v>
@@ -6945,16 +6960,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C173" t="s">
         <v>24</v>
       </c>
       <c r="D173" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E173" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H173" t="s">
         <v>13</v>
@@ -6965,16 +6980,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C174" t="s">
         <v>24</v>
       </c>
       <c r="D174" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E174" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H174" t="s">
         <v>13</v>
@@ -6985,16 +7000,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C175" t="s">
         <v>24</v>
       </c>
       <c r="D175" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E175" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H175" t="s">
         <v>13</v>
@@ -7005,16 +7020,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C176" t="s">
         <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E176" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H176" t="s">
         <v>13</v>
@@ -7025,16 +7040,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C177" t="s">
         <v>24</v>
       </c>
       <c r="D177" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E177" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H177" t="s">
         <v>13</v>
@@ -7045,16 +7060,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C178" t="s">
         <v>24</v>
       </c>
       <c r="D178" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E178" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H178" t="s">
         <v>13</v>
@@ -7065,16 +7080,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C179" t="s">
         <v>24</v>
       </c>
       <c r="D179" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E179" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H179" t="s">
         <v>13</v>
@@ -7085,16 +7100,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C180" t="s">
         <v>24</v>
       </c>
       <c r="D180" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E180" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H180" t="s">
         <v>13</v>
@@ -7105,16 +7120,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C181" t="s">
         <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E181" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H181" t="s">
         <v>13</v>
@@ -7125,16 +7140,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C182" t="s">
         <v>24</v>
       </c>
       <c r="D182" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E182" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H182" t="s">
         <v>13</v>
@@ -7145,16 +7160,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C183" t="s">
         <v>24</v>
       </c>
       <c r="D183" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E183" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H183" t="s">
         <v>13</v>
@@ -7165,16 +7180,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C184" t="s">
         <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E184" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H184" t="s">
         <v>13</v>
@@ -7185,16 +7200,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C185" t="s">
         <v>24</v>
       </c>
       <c r="D185" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E185" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H185" t="s">
         <v>13</v>
@@ -7205,16 +7220,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C186" t="s">
         <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E186" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H186" t="s">
         <v>13</v>
@@ -7225,16 +7240,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C187" t="s">
         <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E187" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H187" t="s">
         <v>13</v>
@@ -7245,16 +7260,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C188" t="s">
         <v>24</v>
       </c>
       <c r="D188" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E188" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H188" t="s">
         <v>13</v>
@@ -7265,16 +7280,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C189" t="s">
         <v>24</v>
       </c>
       <c r="D189" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E189" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H189" t="s">
         <v>13</v>
@@ -7285,16 +7300,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C190" t="s">
         <v>24</v>
       </c>
       <c r="D190" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E190" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H190" t="s">
         <v>13</v>
@@ -7305,16 +7320,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C191" t="s">
         <v>24</v>
       </c>
       <c r="D191" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E191" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H191" t="s">
         <v>13</v>
@@ -7325,16 +7340,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C192" t="s">
         <v>24</v>
       </c>
       <c r="D192" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E192" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H192" t="s">
         <v>13</v>
@@ -7345,16 +7360,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C193" t="s">
         <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E193" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H193" t="s">
         <v>13</v>
@@ -7365,16 +7380,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C194" t="s">
         <v>24</v>
       </c>
       <c r="D194" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E194" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H194" t="s">
         <v>13</v>
@@ -7385,16 +7400,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C195" t="s">
         <v>24</v>
       </c>
       <c r="D195" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E195" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H195" t="s">
         <v>13</v>
@@ -7405,16 +7420,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C196" t="s">
         <v>24</v>
       </c>
       <c r="D196" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E196" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H196" t="s">
         <v>13</v>
@@ -7425,16 +7440,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C197" t="s">
         <v>24</v>
       </c>
       <c r="D197" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E197" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H197" t="s">
         <v>13</v>
@@ -7445,16 +7460,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C198" t="s">
         <v>24</v>
       </c>
       <c r="D198" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E198" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H198" t="s">
         <v>13</v>
@@ -7465,16 +7480,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C199" t="s">
         <v>24</v>
       </c>
       <c r="D199" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E199" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H199" t="s">
         <v>13</v>
@@ -7485,16 +7500,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C200" t="s">
         <v>24</v>
       </c>
       <c r="D200" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E200" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H200" t="s">
         <v>13</v>
@@ -7505,16 +7520,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C201" t="s">
         <v>24</v>
       </c>
       <c r="D201" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E201" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H201" t="s">
         <v>13</v>
@@ -7525,16 +7540,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C202" t="s">
         <v>24</v>
       </c>
       <c r="D202" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E202" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H202" t="s">
         <v>13</v>
@@ -7545,16 +7560,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C203" t="s">
         <v>24</v>
       </c>
       <c r="D203" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E203" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H203" t="s">
         <v>13</v>
@@ -7565,16 +7580,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C204" t="s">
         <v>24</v>
       </c>
       <c r="D204" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E204" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H204" t="s">
         <v>13</v>
@@ -7585,16 +7600,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C205" t="s">
         <v>24</v>
       </c>
       <c r="D205" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E205" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H205" t="s">
         <v>13</v>
@@ -7605,16 +7620,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C206" t="s">
         <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E206" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H206" t="s">
         <v>13</v>
@@ -7625,16 +7640,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C207" t="s">
         <v>24</v>
       </c>
       <c r="D207" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E207" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H207" t="s">
         <v>13</v>
@@ -7645,16 +7660,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C208" t="s">
         <v>24</v>
       </c>
       <c r="D208" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E208" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H208" t="s">
         <v>13</v>
@@ -7665,16 +7680,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C209" t="s">
         <v>24</v>
       </c>
       <c r="D209" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E209" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H209" t="s">
         <v>13</v>
@@ -7685,16 +7700,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C210" t="s">
         <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E210" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H210" t="s">
         <v>13</v>
@@ -7705,16 +7720,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C211" t="s">
         <v>24</v>
       </c>
       <c r="D211" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E211" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H211" t="s">
         <v>13</v>
@@ -7725,16 +7740,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C212" t="s">
         <v>24</v>
       </c>
       <c r="D212" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E212" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H212" t="s">
         <v>13</v>
@@ -7745,16 +7760,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C213" t="s">
         <v>24</v>
       </c>
       <c r="D213" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E213" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H213" t="s">
         <v>13</v>
@@ -7765,16 +7780,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C214" t="s">
         <v>24</v>
       </c>
       <c r="D214" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E214" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H214" t="s">
         <v>13</v>
@@ -7785,16 +7800,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C215" t="s">
         <v>24</v>
       </c>
       <c r="D215" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E215" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H215" t="s">
         <v>13</v>
@@ -7805,16 +7820,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C216" t="s">
         <v>24</v>
       </c>
       <c r="D216" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E216" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H216" t="s">
         <v>13</v>
@@ -7825,16 +7840,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C217" t="s">
         <v>24</v>
       </c>
       <c r="D217" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E217" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H217" t="s">
         <v>13</v>
@@ -7845,16 +7860,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C218" t="s">
         <v>24</v>
       </c>
       <c r="D218" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E218" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H218" t="s">
         <v>13</v>
@@ -7865,16 +7880,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C219" t="s">
         <v>24</v>
       </c>
       <c r="D219" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E219" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H219" t="s">
         <v>13</v>
@@ -7885,16 +7900,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C220" t="s">
         <v>24</v>
       </c>
       <c r="D220" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E220" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H220" t="s">
         <v>13</v>
@@ -7905,16 +7920,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C221" t="s">
         <v>24</v>
       </c>
       <c r="D221" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E221" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H221" t="s">
         <v>13</v>
@@ -7925,16 +7940,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C222" t="s">
         <v>24</v>
       </c>
       <c r="D222" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E222" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H222" t="s">
         <v>13</v>
@@ -7945,16 +7960,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C223" t="s">
         <v>24</v>
       </c>
       <c r="D223" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E223" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H223" t="s">
         <v>13</v>
@@ -7965,16 +7980,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C224" t="s">
         <v>24</v>
       </c>
       <c r="D224" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E224" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H224" t="s">
         <v>13</v>
@@ -7985,16 +8000,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C225" t="s">
         <v>24</v>
       </c>
       <c r="D225" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E225" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H225" t="s">
         <v>13</v>
@@ -8005,16 +8020,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C226" t="s">
         <v>24</v>
       </c>
       <c r="D226" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E226" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H226" t="s">
         <v>13</v>
@@ -8025,16 +8040,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C227" t="s">
         <v>24</v>
       </c>
       <c r="D227" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E227" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H227" t="s">
         <v>13</v>
@@ -8045,16 +8060,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C228" t="s">
         <v>24</v>
       </c>
       <c r="D228" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E228" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H228" t="s">
         <v>13</v>
@@ -8065,16 +8080,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C229" t="s">
         <v>24</v>
       </c>
       <c r="D229" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E229" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H229" t="s">
         <v>13</v>
@@ -8085,16 +8100,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C230" t="s">
         <v>24</v>
       </c>
       <c r="D230" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E230" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H230" t="s">
         <v>13</v>
@@ -8105,16 +8120,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C231" t="s">
         <v>24</v>
       </c>
       <c r="D231" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E231" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H231" t="s">
         <v>13</v>
@@ -8125,16 +8140,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C232" t="s">
         <v>24</v>
       </c>
       <c r="D232" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E232" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H232" t="s">
         <v>13</v>
@@ -8145,16 +8160,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C233" t="s">
         <v>24</v>
       </c>
       <c r="D233" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E233" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H233" t="s">
         <v>13</v>
@@ -8165,16 +8180,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C234" t="s">
         <v>24</v>
       </c>
       <c r="D234" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E234" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H234" t="s">
         <v>13</v>
@@ -8185,16 +8200,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C235" t="s">
         <v>24</v>
       </c>
       <c r="D235" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E235" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H235" t="s">
         <v>13</v>
@@ -8205,16 +8220,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C236" t="s">
         <v>24</v>
       </c>
       <c r="D236" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E236" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H236" t="s">
         <v>13</v>
@@ -8225,16 +8240,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C237" t="s">
         <v>24</v>
       </c>
       <c r="D237" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E237" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H237" t="s">
         <v>13</v>
@@ -8245,16 +8260,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C238" t="s">
         <v>24</v>
       </c>
       <c r="D238" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E238" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H238" t="s">
         <v>13</v>
@@ -8265,16 +8280,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C239" t="s">
         <v>24</v>
       </c>
       <c r="D239" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E239" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H239" t="s">
         <v>13</v>
@@ -8285,16 +8300,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C240" t="s">
         <v>24</v>
       </c>
       <c r="D240" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E240" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H240" t="s">
         <v>13</v>
@@ -8305,16 +8320,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C241" t="s">
         <v>24</v>
       </c>
       <c r="D241" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E241" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H241" t="s">
         <v>13</v>

--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="389">
   <si>
     <t>id</t>
   </si>
@@ -285,6 +285,15 @@
   </si>
   <si>
     <t>获取所有消息</t>
+  </si>
+  <si>
+    <t>关于我们</t>
+  </si>
+  <si>
+    <t>/frontend/v1/notice/about</t>
+  </si>
+  <si>
+    <t>{"desc_client_type":"html"}</t>
   </si>
   <si>
     <t>用户注册</t>
@@ -2374,10 +2383,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -2385,7 +2394,7 @@
     <col min="1" max="1" width="8.72727272727273" style="4"/>
     <col min="2" max="2" width="34.2727272727273" customWidth="1"/>
     <col min="4" max="4" width="59" customWidth="1"/>
-    <col min="5" max="5" width="23" customWidth="1"/>
+    <col min="5" max="5" width="30.9090909090909" customWidth="1"/>
     <col min="6" max="6" width="36.5454545454545" customWidth="1"/>
     <col min="8" max="8" width="8.72727272727273" style="4"/>
   </cols>
@@ -3160,6 +3169,26 @@
         <v>29</v>
       </c>
       <c r="H40" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3216,16 +3245,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3285,16 +3314,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3302,16 +3331,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H3">
         <v>27</v>
@@ -3322,16 +3351,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -3342,16 +3371,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H5">
         <v>21</v>
@@ -3362,16 +3391,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H6">
         <v>22</v>
@@ -3382,16 +3411,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H7">
         <v>22</v>
@@ -3402,16 +3431,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="H8">
         <v>36</v>
@@ -3472,16 +3501,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="H2">
         <v>18</v>
@@ -3540,16 +3569,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -3560,16 +3589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -3580,16 +3609,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -3600,16 +3629,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -3620,16 +3649,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -3640,16 +3669,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
@@ -3660,16 +3689,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -3680,16 +3709,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -3700,16 +3729,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -3720,16 +3749,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -3740,16 +3769,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -3760,16 +3789,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -3780,16 +3809,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -3800,16 +3829,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C15" t="s">
         <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -3820,16 +3849,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -3840,16 +3869,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -3860,16 +3889,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -3880,16 +3909,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C19" t="s">
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H19" t="s">
         <v>13</v>
@@ -3900,16 +3929,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E20" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -3920,16 +3949,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -3940,16 +3969,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C22" t="s">
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -3960,16 +3989,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -3980,16 +4009,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C24" t="s">
         <v>24</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -4000,16 +4029,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C25" t="s">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -4020,16 +4049,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C26" t="s">
         <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -4040,16 +4069,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C27" t="s">
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -4060,16 +4089,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -4080,16 +4109,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
         <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -4100,16 +4129,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
         <v>24</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -4120,16 +4149,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C31" t="s">
         <v>24</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -4140,16 +4169,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>24</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -4160,16 +4189,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C33" t="s">
         <v>24</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -4180,16 +4209,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C34" t="s">
         <v>24</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -4200,16 +4229,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -4220,16 +4249,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s">
         <v>24</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -4240,16 +4269,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C37" t="s">
         <v>24</v>
       </c>
       <c r="D37" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -4260,16 +4289,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C38" t="s">
         <v>24</v>
       </c>
       <c r="D38" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -4280,16 +4309,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C39" t="s">
         <v>24</v>
       </c>
       <c r="D39" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -4300,16 +4329,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C40" t="s">
         <v>24</v>
       </c>
       <c r="D40" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -4320,16 +4349,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C41" t="s">
         <v>24</v>
       </c>
       <c r="D41" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -4340,16 +4369,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
         <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -4360,16 +4389,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
         <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E43" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -4380,16 +4409,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
         <v>24</v>
       </c>
       <c r="D44" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E44" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -4400,16 +4429,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C45" t="s">
         <v>24</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -4420,16 +4449,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
         <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -4440,16 +4469,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C47" t="s">
         <v>24</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -4460,16 +4489,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C48" t="s">
         <v>24</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E48" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -4480,16 +4509,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s">
         <v>24</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -4500,16 +4529,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s">
         <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E50" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -4520,16 +4549,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C51" t="s">
         <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -4540,16 +4569,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C52" t="s">
         <v>24</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -4560,16 +4589,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C53" t="s">
         <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -4580,16 +4609,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C54" t="s">
         <v>24</v>
       </c>
       <c r="D54" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E54" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -4600,16 +4629,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C55" t="s">
         <v>24</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -4620,16 +4649,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C56" t="s">
         <v>24</v>
       </c>
       <c r="D56" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E56" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H56" t="s">
         <v>13</v>
@@ -4640,16 +4669,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C57" t="s">
         <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H57" t="s">
         <v>13</v>
@@ -4660,16 +4689,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
         <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
@@ -4680,16 +4709,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
         <v>24</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
@@ -4700,16 +4729,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C60" t="s">
         <v>24</v>
       </c>
       <c r="D60" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
@@ -4720,16 +4749,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C61" t="s">
         <v>24</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>
@@ -4740,16 +4769,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s">
         <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H62" t="s">
         <v>13</v>
@@ -4760,16 +4789,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C63" t="s">
         <v>24</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H63" t="s">
         <v>13</v>
@@ -4780,16 +4809,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C64" t="s">
         <v>24</v>
       </c>
       <c r="D64" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E64" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H64" t="s">
         <v>13</v>
@@ -4800,16 +4829,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C65" t="s">
         <v>24</v>
       </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E65" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H65" t="s">
         <v>13</v>
@@ -4820,16 +4849,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s">
         <v>24</v>
       </c>
       <c r="D66" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H66" t="s">
         <v>13</v>
@@ -4840,16 +4869,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C67" t="s">
         <v>24</v>
       </c>
       <c r="D67" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E67" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H67" t="s">
         <v>13</v>
@@ -4860,16 +4889,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C68" t="s">
         <v>24</v>
       </c>
       <c r="D68" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E68" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H68" t="s">
         <v>13</v>
@@ -4880,16 +4909,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C69" t="s">
         <v>24</v>
       </c>
       <c r="D69" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E69" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H69" t="s">
         <v>13</v>
@@ -4900,16 +4929,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C70" t="s">
         <v>24</v>
       </c>
       <c r="D70" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E70" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
@@ -4920,16 +4949,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C71" t="s">
         <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E71" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H71" t="s">
         <v>13</v>
@@ -4940,16 +4969,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C72" t="s">
         <v>24</v>
       </c>
       <c r="D72" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E72" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H72" t="s">
         <v>13</v>
@@ -4960,16 +4989,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C73" t="s">
         <v>24</v>
       </c>
       <c r="D73" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E73" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="H73" t="s">
         <v>13</v>
@@ -4980,16 +5009,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C74" t="s">
         <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E74" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H74" t="s">
         <v>13</v>
@@ -5000,16 +5029,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C75" t="s">
         <v>24</v>
       </c>
       <c r="D75" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E75" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H75" t="s">
         <v>13</v>
@@ -5020,16 +5049,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C76" t="s">
         <v>24</v>
       </c>
       <c r="D76" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E76" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
@@ -5040,16 +5069,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C77" t="s">
         <v>24</v>
       </c>
       <c r="D77" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E77" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H77" t="s">
         <v>13</v>
@@ -5060,16 +5089,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C78" t="s">
         <v>24</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E78" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
@@ -5080,16 +5109,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C79" t="s">
         <v>24</v>
       </c>
       <c r="D79" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E79" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H79" t="s">
         <v>13</v>
@@ -5100,16 +5129,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C80" t="s">
         <v>24</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E80" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -5120,16 +5149,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C81" t="s">
         <v>24</v>
       </c>
       <c r="D81" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E81" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H81" t="s">
         <v>13</v>
@@ -5140,16 +5169,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C82" t="s">
         <v>24</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E82" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H82" t="s">
         <v>13</v>
@@ -5160,16 +5189,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C83" t="s">
         <v>24</v>
       </c>
       <c r="D83" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E83" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H83" t="s">
         <v>13</v>
@@ -5180,16 +5209,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C84" t="s">
         <v>24</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E84" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H84" t="s">
         <v>13</v>
@@ -5200,16 +5229,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C85" t="s">
         <v>24</v>
       </c>
       <c r="D85" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E85" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H85" t="s">
         <v>13</v>
@@ -5220,16 +5249,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C86" t="s">
         <v>24</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E86" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H86" t="s">
         <v>13</v>
@@ -5240,16 +5269,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C87" t="s">
         <v>24</v>
       </c>
       <c r="D87" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E87" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
@@ -5260,16 +5289,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C88" t="s">
         <v>24</v>
       </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E88" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H88" t="s">
         <v>13</v>
@@ -5280,16 +5309,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C89" t="s">
         <v>24</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E89" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H89" t="s">
         <v>13</v>
@@ -5300,16 +5329,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C90" t="s">
         <v>24</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E90" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H90" t="s">
         <v>13</v>
@@ -5320,16 +5349,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C91" t="s">
         <v>24</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E91" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H91" t="s">
         <v>13</v>
@@ -5340,16 +5369,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C92" t="s">
         <v>24</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E92" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H92" t="s">
         <v>13</v>
@@ -5360,16 +5389,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C93" t="s">
         <v>24</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E93" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H93" t="s">
         <v>13</v>
@@ -5380,16 +5409,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C94" t="s">
         <v>24</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E94" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H94" t="s">
         <v>13</v>
@@ -5400,16 +5429,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C95" t="s">
         <v>24</v>
       </c>
       <c r="D95" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E95" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H95" t="s">
         <v>13</v>
@@ -5420,16 +5449,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C96" t="s">
         <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E96" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H96" t="s">
         <v>13</v>
@@ -5440,16 +5469,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C97" t="s">
         <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E97" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H97" t="s">
         <v>13</v>
@@ -5460,16 +5489,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C98" t="s">
         <v>24</v>
       </c>
       <c r="D98" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E98" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H98" t="s">
         <v>13</v>
@@ -5480,16 +5509,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C99" t="s">
         <v>24</v>
       </c>
       <c r="D99" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E99" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H99" t="s">
         <v>13</v>
@@ -5500,16 +5529,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C100" t="s">
         <v>24</v>
       </c>
       <c r="D100" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E100" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H100" t="s">
         <v>13</v>
@@ -5520,16 +5549,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C101" t="s">
         <v>24</v>
       </c>
       <c r="D101" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E101" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H101" t="s">
         <v>13</v>
@@ -5540,16 +5569,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C102" t="s">
         <v>24</v>
       </c>
       <c r="D102" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E102" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H102" t="s">
         <v>13</v>
@@ -5560,16 +5589,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C103" t="s">
         <v>24</v>
       </c>
       <c r="D103" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E103" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H103" t="s">
         <v>13</v>
@@ -5580,16 +5609,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C104" t="s">
         <v>24</v>
       </c>
       <c r="D104" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E104" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H104" t="s">
         <v>13</v>
@@ -5600,16 +5629,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C105" t="s">
         <v>24</v>
       </c>
       <c r="D105" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E105" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H105" t="s">
         <v>13</v>
@@ -5620,16 +5649,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C106" t="s">
         <v>24</v>
       </c>
       <c r="D106" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E106" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H106" t="s">
         <v>13</v>
@@ -5640,16 +5669,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C107" t="s">
         <v>24</v>
       </c>
       <c r="D107" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E107" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H107" t="s">
         <v>13</v>
@@ -5660,16 +5689,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C108" t="s">
         <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E108" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H108" t="s">
         <v>13</v>
@@ -5680,16 +5709,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C109" t="s">
         <v>24</v>
       </c>
       <c r="D109" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E109" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H109" t="s">
         <v>13</v>
@@ -5700,16 +5729,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C110" t="s">
         <v>24</v>
       </c>
       <c r="D110" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E110" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H110" t="s">
         <v>13</v>
@@ -5720,16 +5749,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C111" t="s">
         <v>24</v>
       </c>
       <c r="D111" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E111" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H111" t="s">
         <v>13</v>
@@ -5740,16 +5769,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C112" t="s">
         <v>24</v>
       </c>
       <c r="D112" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E112" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H112" t="s">
         <v>13</v>
@@ -5760,16 +5789,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C113" t="s">
         <v>24</v>
       </c>
       <c r="D113" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H113" t="s">
         <v>13</v>
@@ -5780,16 +5809,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C114" t="s">
         <v>24</v>
       </c>
       <c r="D114" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E114" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H114" t="s">
         <v>13</v>
@@ -5800,16 +5829,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C115" t="s">
         <v>24</v>
       </c>
       <c r="D115" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E115" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H115" t="s">
         <v>13</v>
@@ -5820,16 +5849,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C116" t="s">
         <v>24</v>
       </c>
       <c r="D116" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E116" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H116" t="s">
         <v>13</v>
@@ -5840,16 +5869,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C117" t="s">
         <v>24</v>
       </c>
       <c r="D117" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E117" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H117" t="s">
         <v>13</v>
@@ -5860,16 +5889,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C118" t="s">
         <v>24</v>
       </c>
       <c r="D118" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E118" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H118" t="s">
         <v>13</v>
@@ -5880,16 +5909,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C119" t="s">
         <v>24</v>
       </c>
       <c r="D119" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E119" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H119" t="s">
         <v>13</v>
@@ -5900,16 +5929,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C120" t="s">
         <v>24</v>
       </c>
       <c r="D120" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E120" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H120" t="s">
         <v>13</v>
@@ -5920,16 +5949,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C121" t="s">
         <v>24</v>
       </c>
       <c r="D121" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E121" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H121" t="s">
         <v>13</v>
@@ -5940,16 +5969,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C122" t="s">
         <v>24</v>
       </c>
       <c r="D122" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E122" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H122" t="s">
         <v>13</v>
@@ -5960,16 +5989,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C123" t="s">
         <v>24</v>
       </c>
       <c r="D123" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E123" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H123" t="s">
         <v>13</v>
@@ -5980,16 +6009,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C124" t="s">
         <v>24</v>
       </c>
       <c r="D124" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E124" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H124" t="s">
         <v>13</v>
@@ -6000,16 +6029,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C125" t="s">
         <v>24</v>
       </c>
       <c r="D125" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E125" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="H125" t="s">
         <v>13</v>
@@ -6020,16 +6049,16 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C126" t="s">
         <v>24</v>
       </c>
       <c r="D126" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E126" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H126" t="s">
         <v>13</v>
@@ -6040,16 +6069,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C127" t="s">
         <v>24</v>
       </c>
       <c r="D127" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E127" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H127" t="s">
         <v>13</v>
@@ -6060,16 +6089,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C128" t="s">
         <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E128" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H128" t="s">
         <v>13</v>
@@ -6080,16 +6109,16 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C129" t="s">
         <v>24</v>
       </c>
       <c r="D129" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E129" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H129" t="s">
         <v>13</v>
@@ -6100,16 +6129,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C130" t="s">
         <v>24</v>
       </c>
       <c r="D130" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E130" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H130" t="s">
         <v>13</v>
@@ -6120,16 +6149,16 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C131" t="s">
         <v>24</v>
       </c>
       <c r="D131" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E131" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H131" t="s">
         <v>13</v>
@@ -6140,16 +6169,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C132" t="s">
         <v>24</v>
       </c>
       <c r="D132" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E132" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H132" t="s">
         <v>13</v>
@@ -6160,16 +6189,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C133" t="s">
         <v>24</v>
       </c>
       <c r="D133" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E133" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H133" t="s">
         <v>13</v>
@@ -6180,16 +6209,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C134" t="s">
         <v>24</v>
       </c>
       <c r="D134" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E134" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="H134" t="s">
         <v>13</v>
@@ -6200,16 +6229,16 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C135" t="s">
         <v>24</v>
       </c>
       <c r="D135" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E135" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H135" t="s">
         <v>13</v>
@@ -6220,16 +6249,16 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C136" t="s">
         <v>24</v>
       </c>
       <c r="D136" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E136" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H136" t="s">
         <v>13</v>
@@ -6240,16 +6269,16 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C137" t="s">
         <v>24</v>
       </c>
       <c r="D137" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E137" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H137" t="s">
         <v>13</v>
@@ -6260,16 +6289,16 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C138" t="s">
         <v>24</v>
       </c>
       <c r="D138" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E138" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H138" t="s">
         <v>13</v>
@@ -6280,16 +6309,16 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C139" t="s">
         <v>24</v>
       </c>
       <c r="D139" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E139" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H139" t="s">
         <v>13</v>
@@ -6300,16 +6329,16 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C140" t="s">
         <v>24</v>
       </c>
       <c r="D140" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E140" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H140" t="s">
         <v>13</v>
@@ -6320,16 +6349,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C141" t="s">
         <v>24</v>
       </c>
       <c r="D141" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E141" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H141" t="s">
         <v>13</v>
@@ -6340,16 +6369,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C142" t="s">
         <v>24</v>
       </c>
       <c r="D142" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E142" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H142" t="s">
         <v>13</v>
@@ -6360,16 +6389,16 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C143" t="s">
         <v>24</v>
       </c>
       <c r="D143" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E143" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H143" t="s">
         <v>13</v>
@@ -6380,16 +6409,16 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C144" t="s">
         <v>24</v>
       </c>
       <c r="D144" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H144" t="s">
         <v>13</v>
@@ -6400,16 +6429,16 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C145" t="s">
         <v>24</v>
       </c>
       <c r="D145" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E145" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H145" t="s">
         <v>13</v>
@@ -6420,16 +6449,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C146" t="s">
         <v>24</v>
       </c>
       <c r="D146" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H146" t="s">
         <v>13</v>
@@ -6440,16 +6469,16 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C147" t="s">
         <v>24</v>
       </c>
       <c r="D147" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E147" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H147" t="s">
         <v>13</v>
@@ -6460,16 +6489,16 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C148" t="s">
         <v>24</v>
       </c>
       <c r="D148" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H148" t="s">
         <v>13</v>
@@ -6480,16 +6509,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C149" t="s">
         <v>24</v>
       </c>
       <c r="D149" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H149" t="s">
         <v>13</v>
@@ -6500,16 +6529,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C150" t="s">
         <v>24</v>
       </c>
       <c r="D150" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E150" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H150" t="s">
         <v>13</v>
@@ -6520,16 +6549,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C151" t="s">
         <v>24</v>
       </c>
       <c r="D151" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E151" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H151" t="s">
         <v>13</v>
@@ -6540,16 +6569,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C152" t="s">
         <v>24</v>
       </c>
       <c r="D152" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E152" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H152" t="s">
         <v>13</v>
@@ -6560,16 +6589,16 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C153" t="s">
         <v>24</v>
       </c>
       <c r="D153" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E153" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H153" t="s">
         <v>13</v>
@@ -6580,16 +6609,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C154" t="s">
         <v>24</v>
       </c>
       <c r="D154" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E154" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H154" t="s">
         <v>13</v>
@@ -6600,16 +6629,16 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C155" t="s">
         <v>24</v>
       </c>
       <c r="D155" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E155" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H155" t="s">
         <v>13</v>
@@ -6620,16 +6649,16 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C156" t="s">
         <v>24</v>
       </c>
       <c r="D156" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E156" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H156" t="s">
         <v>13</v>
@@ -6640,16 +6669,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C157" t="s">
         <v>24</v>
       </c>
       <c r="D157" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E157" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H157" t="s">
         <v>13</v>
@@ -6660,16 +6689,16 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C158" t="s">
         <v>24</v>
       </c>
       <c r="D158" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E158" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H158" t="s">
         <v>13</v>
@@ -6680,16 +6709,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C159" t="s">
         <v>24</v>
       </c>
       <c r="D159" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E159" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H159" t="s">
         <v>13</v>
@@ -6700,16 +6729,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C160" t="s">
         <v>24</v>
       </c>
       <c r="D160" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E160" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H160" t="s">
         <v>13</v>
@@ -6720,16 +6749,16 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C161" t="s">
         <v>24</v>
       </c>
       <c r="D161" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E161" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H161" t="s">
         <v>13</v>
@@ -6740,16 +6769,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C162" t="s">
         <v>24</v>
       </c>
       <c r="D162" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E162" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H162" t="s">
         <v>13</v>
@@ -6760,16 +6789,16 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C163" t="s">
         <v>24</v>
       </c>
       <c r="D163" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E163" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H163" t="s">
         <v>13</v>
@@ -6780,16 +6809,16 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C164" t="s">
         <v>24</v>
       </c>
       <c r="D164" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E164" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H164" t="s">
         <v>13</v>
@@ -6800,16 +6829,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C165" t="s">
         <v>24</v>
       </c>
       <c r="D165" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E165" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H165" t="s">
         <v>13</v>
@@ -6820,16 +6849,16 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C166" t="s">
         <v>24</v>
       </c>
       <c r="D166" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E166" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H166" t="s">
         <v>13</v>
@@ -6840,16 +6869,16 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C167" t="s">
         <v>24</v>
       </c>
       <c r="D167" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E167" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H167" t="s">
         <v>13</v>
@@ -6860,16 +6889,16 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C168" t="s">
         <v>24</v>
       </c>
       <c r="D168" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E168" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H168" t="s">
         <v>13</v>
@@ -6880,16 +6909,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C169" t="s">
         <v>24</v>
       </c>
       <c r="D169" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E169" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H169" t="s">
         <v>13</v>
@@ -6900,16 +6929,16 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C170" t="s">
         <v>24</v>
       </c>
       <c r="D170" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E170" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H170" t="s">
         <v>13</v>
@@ -6920,16 +6949,16 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C171" t="s">
         <v>24</v>
       </c>
       <c r="D171" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E171" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H171" t="s">
         <v>13</v>
@@ -6940,16 +6969,16 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C172" t="s">
         <v>24</v>
       </c>
       <c r="D172" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E172" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H172" t="s">
         <v>13</v>
@@ -6960,16 +6989,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C173" t="s">
         <v>24</v>
       </c>
       <c r="D173" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E173" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H173" t="s">
         <v>13</v>
@@ -6980,16 +7009,16 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C174" t="s">
         <v>24</v>
       </c>
       <c r="D174" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E174" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H174" t="s">
         <v>13</v>
@@ -7000,16 +7029,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C175" t="s">
         <v>24</v>
       </c>
       <c r="D175" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E175" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H175" t="s">
         <v>13</v>
@@ -7020,16 +7049,16 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C176" t="s">
         <v>24</v>
       </c>
       <c r="D176" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E176" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H176" t="s">
         <v>13</v>
@@ -7040,16 +7069,16 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C177" t="s">
         <v>24</v>
       </c>
       <c r="D177" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E177" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H177" t="s">
         <v>13</v>
@@ -7060,16 +7089,16 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C178" t="s">
         <v>24</v>
       </c>
       <c r="D178" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E178" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H178" t="s">
         <v>13</v>
@@ -7080,16 +7109,16 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C179" t="s">
         <v>24</v>
       </c>
       <c r="D179" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E179" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H179" t="s">
         <v>13</v>
@@ -7100,16 +7129,16 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C180" t="s">
         <v>24</v>
       </c>
       <c r="D180" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E180" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H180" t="s">
         <v>13</v>
@@ -7120,16 +7149,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="C181" t="s">
         <v>24</v>
       </c>
       <c r="D181" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E181" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H181" t="s">
         <v>13</v>
@@ -7140,16 +7169,16 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C182" t="s">
         <v>24</v>
       </c>
       <c r="D182" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E182" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H182" t="s">
         <v>13</v>
@@ -7160,16 +7189,16 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C183" t="s">
         <v>24</v>
       </c>
       <c r="D183" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E183" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H183" t="s">
         <v>13</v>
@@ -7180,16 +7209,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C184" t="s">
         <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E184" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H184" t="s">
         <v>13</v>
@@ -7200,16 +7229,16 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C185" t="s">
         <v>24</v>
       </c>
       <c r="D185" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E185" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H185" t="s">
         <v>13</v>
@@ -7220,16 +7249,16 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C186" t="s">
         <v>24</v>
       </c>
       <c r="D186" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E186" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H186" t="s">
         <v>13</v>
@@ -7240,16 +7269,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="C187" t="s">
         <v>24</v>
       </c>
       <c r="D187" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E187" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H187" t="s">
         <v>13</v>
@@ -7260,16 +7289,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="C188" t="s">
         <v>24</v>
       </c>
       <c r="D188" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E188" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H188" t="s">
         <v>13</v>
@@ -7280,16 +7309,16 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C189" t="s">
         <v>24</v>
       </c>
       <c r="D189" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E189" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H189" t="s">
         <v>13</v>
@@ -7300,16 +7329,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="C190" t="s">
         <v>24</v>
       </c>
       <c r="D190" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E190" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H190" t="s">
         <v>13</v>
@@ -7320,16 +7349,16 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C191" t="s">
         <v>24</v>
       </c>
       <c r="D191" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E191" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H191" t="s">
         <v>13</v>
@@ -7340,16 +7369,16 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C192" t="s">
         <v>24</v>
       </c>
       <c r="D192" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E192" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H192" t="s">
         <v>13</v>
@@ -7360,16 +7389,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C193" t="s">
         <v>24</v>
       </c>
       <c r="D193" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E193" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H193" t="s">
         <v>13</v>
@@ -7380,16 +7409,16 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C194" t="s">
         <v>24</v>
       </c>
       <c r="D194" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E194" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H194" t="s">
         <v>13</v>
@@ -7400,16 +7429,16 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C195" t="s">
         <v>24</v>
       </c>
       <c r="D195" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E195" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H195" t="s">
         <v>13</v>
@@ -7420,16 +7449,16 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C196" t="s">
         <v>24</v>
       </c>
       <c r="D196" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E196" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H196" t="s">
         <v>13</v>
@@ -7440,16 +7469,16 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C197" t="s">
         <v>24</v>
       </c>
       <c r="D197" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E197" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H197" t="s">
         <v>13</v>
@@ -7460,16 +7489,16 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C198" t="s">
         <v>24</v>
       </c>
       <c r="D198" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E198" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H198" t="s">
         <v>13</v>
@@ -7480,16 +7509,16 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C199" t="s">
         <v>24</v>
       </c>
       <c r="D199" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E199" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H199" t="s">
         <v>13</v>
@@ -7500,16 +7529,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C200" t="s">
         <v>24</v>
       </c>
       <c r="D200" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E200" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H200" t="s">
         <v>13</v>
@@ -7520,16 +7549,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C201" t="s">
         <v>24</v>
       </c>
       <c r="D201" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E201" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H201" t="s">
         <v>13</v>
@@ -7540,16 +7569,16 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C202" t="s">
         <v>24</v>
       </c>
       <c r="D202" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E202" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H202" t="s">
         <v>13</v>
@@ -7560,16 +7589,16 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C203" t="s">
         <v>24</v>
       </c>
       <c r="D203" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E203" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H203" t="s">
         <v>13</v>
@@ -7580,16 +7609,16 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C204" t="s">
         <v>24</v>
       </c>
       <c r="D204" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E204" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H204" t="s">
         <v>13</v>
@@ -7600,16 +7629,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C205" t="s">
         <v>24</v>
       </c>
       <c r="D205" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E205" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H205" t="s">
         <v>13</v>
@@ -7620,16 +7649,16 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C206" t="s">
         <v>24</v>
       </c>
       <c r="D206" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E206" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H206" t="s">
         <v>13</v>
@@ -7640,16 +7669,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C207" t="s">
         <v>24</v>
       </c>
       <c r="D207" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E207" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H207" t="s">
         <v>13</v>
@@ -7660,16 +7689,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C208" t="s">
         <v>24</v>
       </c>
       <c r="D208" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E208" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H208" t="s">
         <v>13</v>
@@ -7680,16 +7709,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C209" t="s">
         <v>24</v>
       </c>
       <c r="D209" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E209" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H209" t="s">
         <v>13</v>
@@ -7700,16 +7729,16 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C210" t="s">
         <v>24</v>
       </c>
       <c r="D210" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E210" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="H210" t="s">
         <v>13</v>
@@ -7720,16 +7749,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C211" t="s">
         <v>24</v>
       </c>
       <c r="D211" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E211" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H211" t="s">
         <v>13</v>
@@ -7740,16 +7769,16 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C212" t="s">
         <v>24</v>
       </c>
       <c r="D212" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E212" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H212" t="s">
         <v>13</v>
@@ -7760,16 +7789,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C213" t="s">
         <v>24</v>
       </c>
       <c r="D213" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E213" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H213" t="s">
         <v>13</v>
@@ -7780,16 +7809,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C214" t="s">
         <v>24</v>
       </c>
       <c r="D214" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E214" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H214" t="s">
         <v>13</v>
@@ -7800,16 +7829,16 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C215" t="s">
         <v>24</v>
       </c>
       <c r="D215" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E215" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H215" t="s">
         <v>13</v>
@@ -7820,16 +7849,16 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C216" t="s">
         <v>24</v>
       </c>
       <c r="D216" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E216" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H216" t="s">
         <v>13</v>
@@ -7840,16 +7869,16 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C217" t="s">
         <v>24</v>
       </c>
       <c r="D217" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E217" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H217" t="s">
         <v>13</v>
@@ -7860,16 +7889,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C218" t="s">
         <v>24</v>
       </c>
       <c r="D218" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E218" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H218" t="s">
         <v>13</v>
@@ -7880,16 +7909,16 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C219" t="s">
         <v>24</v>
       </c>
       <c r="D219" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E219" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H219" t="s">
         <v>13</v>
@@ -7900,16 +7929,16 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C220" t="s">
         <v>24</v>
       </c>
       <c r="D220" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E220" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H220" t="s">
         <v>13</v>
@@ -7920,16 +7949,16 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C221" t="s">
         <v>24</v>
       </c>
       <c r="D221" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E221" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H221" t="s">
         <v>13</v>
@@ -7940,16 +7969,16 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C222" t="s">
         <v>24</v>
       </c>
       <c r="D222" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E222" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H222" t="s">
         <v>13</v>
@@ -7960,16 +7989,16 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C223" t="s">
         <v>24</v>
       </c>
       <c r="D223" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E223" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H223" t="s">
         <v>13</v>
@@ -7980,16 +8009,16 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C224" t="s">
         <v>24</v>
       </c>
       <c r="D224" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E224" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H224" t="s">
         <v>13</v>
@@ -8000,16 +8029,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="C225" t="s">
         <v>24</v>
       </c>
       <c r="D225" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E225" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H225" t="s">
         <v>13</v>
@@ -8020,16 +8049,16 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C226" t="s">
         <v>24</v>
       </c>
       <c r="D226" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E226" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H226" t="s">
         <v>13</v>
@@ -8040,16 +8069,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C227" t="s">
         <v>24</v>
       </c>
       <c r="D227" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E227" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H227" t="s">
         <v>13</v>
@@ -8060,16 +8089,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C228" t="s">
         <v>24</v>
       </c>
       <c r="D228" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E228" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H228" t="s">
         <v>13</v>
@@ -8080,16 +8109,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C229" t="s">
         <v>24</v>
       </c>
       <c r="D229" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E229" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H229" t="s">
         <v>13</v>
@@ -8100,16 +8129,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C230" t="s">
         <v>24</v>
       </c>
       <c r="D230" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E230" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H230" t="s">
         <v>13</v>
@@ -8120,16 +8149,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C231" t="s">
         <v>24</v>
       </c>
       <c r="D231" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E231" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H231" t="s">
         <v>13</v>
@@ -8140,16 +8169,16 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="C232" t="s">
         <v>24</v>
       </c>
       <c r="D232" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E232" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H232" t="s">
         <v>13</v>
@@ -8160,16 +8189,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C233" t="s">
         <v>24</v>
       </c>
       <c r="D233" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E233" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H233" t="s">
         <v>13</v>
@@ -8180,16 +8209,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C234" t="s">
         <v>24</v>
       </c>
       <c r="D234" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E234" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H234" t="s">
         <v>13</v>
@@ -8200,16 +8229,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="C235" t="s">
         <v>24</v>
       </c>
       <c r="D235" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E235" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="H235" t="s">
         <v>13</v>
@@ -8220,16 +8249,16 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C236" t="s">
         <v>24</v>
       </c>
       <c r="D236" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E236" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="H236" t="s">
         <v>13</v>
@@ -8240,16 +8269,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C237" t="s">
         <v>24</v>
       </c>
       <c r="D237" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E237" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H237" t="s">
         <v>13</v>
@@ -8260,16 +8289,16 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C238" t="s">
         <v>24</v>
       </c>
       <c r="D238" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E238" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="H238" t="s">
         <v>13</v>
@@ -8280,16 +8309,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C239" t="s">
         <v>24</v>
       </c>
       <c r="D239" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E239" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H239" t="s">
         <v>13</v>
@@ -8300,16 +8329,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C240" t="s">
         <v>24</v>
       </c>
       <c r="D240" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E240" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="H240" t="s">
         <v>13</v>
@@ -8320,16 +8349,16 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C241" t="s">
         <v>24</v>
       </c>
       <c r="D241" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E241" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H241" t="s">
         <v>13</v>

--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="2"/>
+    <workbookView windowWidth="28380" windowHeight="15230" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="3" r:id="rId1"/>
@@ -1195,10 +1195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1218,9 +1218,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1248,40 +1323,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1303,51 +1347,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1362,7 +1362,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,19 +1422,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1398,13 +1500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,109 +1524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1536,13 +1542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,15 +1557,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1595,17 +1610,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1613,8 +1637,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1629,40 +1653,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1671,131 +1671,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2386,7 +2386,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -3527,7 +3527,7 @@
   <sheetPr/>
   <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView topLeftCell="A191" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A206" workbookViewId="0">
       <selection activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>

--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28380" windowHeight="15230" activeTab="2"/>
+    <workbookView windowWidth="28820" windowHeight="16350"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="3" r:id="rId1"/>
@@ -58,13 +58,13 @@
     <t>/frontend/v1/login</t>
   </si>
   <si>
-    <t>{"userName":"mmmlll","password":"12345678"}</t>
+    <t>{"userName":"aaalll","password":"12345678"}</t>
   </si>
   <si>
     <t>成功</t>
   </si>
   <si>
-    <t>{"userName":"mmmlll","password":"1234567822"}</t>
+    <t>{"userName":"aaalll","password":"1234567822"}</t>
   </si>
   <si>
     <t>帐号或密码错误
@@ -77,7 +77,7 @@
     <t>用户名 字段必须填写</t>
   </si>
   <si>
-    <t>{"userName":"mmmlll","password":""}</t>
+    <t>{"userName":"aaalll","password":""}</t>
   </si>
   <si>
     <t>密码 字段必须填写</t>
@@ -1195,10 +1195,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1218,13 +1218,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1232,7 +1225,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1246,15 +1268,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1262,24 +1286,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1299,24 +1308,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1347,7 +1340,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1362,13 +1362,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,13 +1488,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1404,61 +1518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,7 +1530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1482,67 +1542,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1556,17 +1556,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1582,15 +1576,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1612,9 +1597,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1637,19 +1624,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1659,10 +1659,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1671,131 +1671,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2168,8 +2168,8 @@
   <sheetPr/>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14545454545454" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -2385,7 +2385,7 @@
   <sheetPr/>
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/data/api_data.xlsx
+++ b/data/api_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28820" windowHeight="16350"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="3" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="game" sheetId="6" r:id="rId5"/>
     <sheet name="activity" sheetId="7" r:id="rId6"/>
     <sheet name="betrecord" sheetId="8" r:id="rId7"/>
+    <sheet name="agency_center" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1520" uniqueCount="392">
   <si>
     <t>id</t>
   </si>
@@ -58,7 +59,7 @@
     <t>/frontend/v1/login</t>
   </si>
   <si>
-    <t>{"userName":"aaalll","password":"12345678"}</t>
+    <t>{"userName":"mmmlll","password":"12345678"}</t>
   </si>
   <si>
     <t>成功</t>
@@ -1188,6 +1189,15 @@
   </si>
   <si>
     <t>获取棋牌上月每天的FG棋牌注单详情</t>
+  </si>
+  <si>
+    <t>代理中心首页</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>/frontend/v1/agencyIndex</t>
   </si>
 </sst>
 </file>
@@ -1195,18 +1205,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1217,29 +1233,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1254,31 +1265,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1294,22 +1326,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1322,32 +1355,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1362,25 +1378,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1392,25 +1420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,19 +1444,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1452,97 +1552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1565,17 +1581,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1595,13 +1605,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1621,26 +1635,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1659,10 +1675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1671,150 +1687,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2169,7 +2186,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14545454545454" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
@@ -2183,7 +2200,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2195,21 +2212,21 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -2221,17 +2238,17 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="28" spans="1:8">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2243,15 +2260,15 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2263,7 +2280,7 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H4" t="s">
@@ -2271,7 +2288,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2283,7 +2300,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
       <c r="H5" t="s">
@@ -2307,18 +2324,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="8.57272727272727" customWidth="1"/>
     <col min="4" max="4" width="41.8545454545455" customWidth="1"/>
     <col min="5" max="5" width="7.54545454545455" customWidth="1"/>
-    <col min="6" max="6" width="5.54545454545455" style="2" customWidth="1"/>
-    <col min="7" max="7" width="7.54545454545455" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="3"/>
+    <col min="6" max="6" width="5.54545454545455" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54545454545455" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2330,21 +2347,21 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
@@ -2356,22 +2373,22 @@
       <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="6:6">
-      <c r="F3" s="5"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="7" spans="6:7">
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="6:6">
-      <c r="F8" s="5"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="6:6">
-      <c r="F9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2386,21 +2403,21 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="4"/>
+    <col min="1" max="1" width="8.72727272727273" style="7"/>
     <col min="2" max="2" width="34.2727272727273" customWidth="1"/>
     <col min="4" max="4" width="59" customWidth="1"/>
     <col min="5" max="5" width="30.9090909090909" customWidth="1"/>
     <col min="6" max="6" width="36.5454545454545" customWidth="1"/>
-    <col min="8" max="8" width="8.72727272727273" style="4"/>
+    <col min="8" max="8" width="8.72727272727273" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2412,21 +2429,21 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2440,7 +2457,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2452,12 +2469,12 @@
       <c r="D3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2469,12 +2486,12 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2489,12 +2506,12 @@
       <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2509,12 +2526,12 @@
       <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2529,12 +2546,12 @@
       <c r="E7" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2549,12 +2566,12 @@
       <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2569,12 +2586,12 @@
       <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2589,12 +2606,12 @@
       <c r="E10" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2609,12 +2626,12 @@
       <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -2629,12 +2646,12 @@
       <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2649,12 +2666,12 @@
       <c r="E13" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2669,12 +2686,12 @@
       <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2689,12 +2706,12 @@
       <c r="E15" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -2709,12 +2726,12 @@
       <c r="E16" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -2729,12 +2746,12 @@
       <c r="E17" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="4">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -2749,12 +2766,12 @@
       <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="4">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2769,12 +2786,12 @@
       <c r="E19" t="s">
         <v>37</v>
       </c>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="4">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -2789,12 +2806,12 @@
       <c r="E20" t="s">
         <v>37</v>
       </c>
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="4">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -2809,12 +2826,12 @@
       <c r="E21" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="4" t="s">
+      <c r="H21" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="4">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -2829,12 +2846,12 @@
       <c r="E22" t="s">
         <v>37</v>
       </c>
-      <c r="H22" s="4" t="s">
+      <c r="H22" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="4">
+      <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -2849,12 +2866,12 @@
       <c r="E23" t="s">
         <v>37</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="4">
+      <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -2869,12 +2886,12 @@
       <c r="E24" t="s">
         <v>37</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="4">
+      <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -2889,12 +2906,12 @@
       <c r="E25" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="4">
+      <c r="A26" s="7">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -2909,12 +2926,12 @@
       <c r="E26" t="s">
         <v>37</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="H26" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="4">
+      <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -2929,12 +2946,12 @@
       <c r="F27" t="s">
         <v>63</v>
       </c>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="4">
+      <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" t="s">
@@ -2949,12 +2966,12 @@
       <c r="F28" t="s">
         <v>65</v>
       </c>
-      <c r="H28" s="4" t="s">
+      <c r="H28" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="4">
+      <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" t="s">
@@ -2969,12 +2986,12 @@
       <c r="F29" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="H29" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="4">
+      <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" t="s">
@@ -2989,12 +3006,12 @@
       <c r="F30" t="s">
         <v>69</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="H30" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="4">
+      <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" t="s">
@@ -3009,12 +3026,12 @@
       <c r="E31" t="s">
         <v>72</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="4">
+      <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" t="s">
@@ -3029,12 +3046,12 @@
       <c r="F32" t="s">
         <v>75</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="H32" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="4">
+      <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" t="s">
@@ -3049,12 +3066,12 @@
       <c r="F33" t="s">
         <v>78</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="H33" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="4">
+      <c r="A34" s="7">
         <v>33</v>
       </c>
       <c r="B34" t="s">
@@ -3066,12 +3083,12 @@
       <c r="D34" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="4">
+      <c r="A35" s="7">
         <v>34</v>
       </c>
       <c r="B35" t="s">
@@ -3083,12 +3100,12 @@
       <c r="D35" t="s">
         <v>82</v>
       </c>
-      <c r="H35" s="4" t="s">
+      <c r="H35" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="4">
+      <c r="A36" s="7">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -3100,12 +3117,12 @@
       <c r="D36" t="s">
         <v>82</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="4">
+      <c r="A37" s="7">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -3117,12 +3134,12 @@
       <c r="D37" t="s">
         <v>82</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="4">
+      <c r="A38" s="7">
         <v>37</v>
       </c>
       <c r="B38" t="s">
@@ -3134,12 +3151,12 @@
       <c r="D38" t="s">
         <v>86</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="4">
+      <c r="A39" s="7">
         <v>38</v>
       </c>
       <c r="B39" t="s">
@@ -3151,12 +3168,12 @@
       <c r="D39" t="s">
         <v>80</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="4">
+      <c r="A40" s="7">
         <v>39</v>
       </c>
       <c r="B40" t="s">
@@ -3168,12 +3185,12 @@
       <c r="D40" t="s">
         <v>29</v>
       </c>
-      <c r="H40" s="4" t="s">
+      <c r="H40" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="4">
+      <c r="A41" s="7">
         <v>40</v>
       </c>
       <c r="B41" t="s">
@@ -3188,7 +3205,7 @@
       <c r="E41" t="s">
         <v>90</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H41" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3209,13 +3226,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="4"/>
+    <col min="1" max="1" width="8.72727272727273" style="7"/>
     <col min="4" max="4" width="24.1818181818182" customWidth="1"/>
     <col min="6" max="6" width="47.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3227,21 +3244,21 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -3277,14 +3294,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="4"/>
+    <col min="1" max="1" width="8.72727272727273" style="7"/>
     <col min="2" max="2" width="27.5454545454545" customWidth="1"/>
     <col min="4" max="4" width="27.5454545454545" customWidth="1"/>
     <col min="6" max="6" width="38.8181818181818" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3296,21 +3313,21 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="4">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -3327,7 +3344,7 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -3347,7 +3364,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -3367,7 +3384,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -3387,7 +3404,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -3407,7 +3424,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -3427,7 +3444,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -3471,7 +3488,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3483,16 +3500,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3539,7 +3556,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -3551,16 +3568,16 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8363,6 +8380,98 @@
       <c r="H241" t="s">
         <v>13</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="3" width="20.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="24.7272727272727" customWidth="1"/>
+    <col min="5" max="5" width="20.1818181818182" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="9" width="20.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="49" customHeight="1" spans="1:8">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="49" customHeight="1" spans="1:8">
+      <c r="A3" s="7"/>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+      <c r="F3" s="6"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" ht="49" customHeight="1" spans="1:6">
+      <c r="A4" s="7"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" ht="49" customHeight="1" spans="1:6">
+      <c r="A5" s="7"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="F5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
